--- a/Dados/BR_TRI/tabPSTRI_2013.xlsx
+++ b/Dados/BR_TRI/tabPSTRI_2013.xlsx
@@ -16,12 +16,9 @@
     <sheet name="N PRINCIPAL" sheetId="7" r:id="rId7"/>
     <sheet name="HABITUAL PRINCIPAL" sheetId="8" r:id="rId8"/>
     <sheet name="EFETIVA PRINCIPAL" sheetId="9" r:id="rId9"/>
-    <sheet name="N P&amp;S" sheetId="10" r:id="rId10"/>
-    <sheet name="HABITUAL P&amp;S" sheetId="11" r:id="rId11"/>
-    <sheet name="EFETIVA P&amp;S" sheetId="12" r:id="rId12"/>
-    <sheet name="N SECUNDÁRIO" sheetId="13" r:id="rId13"/>
-    <sheet name="HABITUAL SECUNDÁRIO" sheetId="14" r:id="rId14"/>
-    <sheet name="EFETIVA SECUNDÁRIO" sheetId="15" r:id="rId15"/>
+    <sheet name="N SECUNDÁRIO" sheetId="10" r:id="rId10"/>
+    <sheet name="HABITUAL SECUNDÁRIO" sheetId="11" r:id="rId11"/>
+    <sheet name="EFETIVA SECUNDÁRIO" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -540,7 +537,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -549,7 +546,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>cod_SCN_PR</t>
+          <t>cod_SCN_SEC</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -608,22 +605,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>12394.01864876</v>
+        <v>130.32523083</v>
       </c>
       <c r="E2">
-        <v>3323.248489086321</v>
+        <v>134.3249828799014</v>
       </c>
       <c r="F2">
-        <v>5840.717042531483</v>
+        <v>-134.5577982165261</v>
       </c>
       <c r="G2">
-        <v>18947.32025498852</v>
+        <v>395.2082598765261</v>
       </c>
       <c r="H2">
-        <v>11043980.52021452</v>
+        <v>18043.20102568581</v>
       </c>
       <c r="I2">
-        <v>0.2681332490506464</v>
+        <v>1.030690542609656</v>
       </c>
     </row>
     <row r="3">
@@ -641,27 +638,27 @@
         </is>
       </c>
       <c r="D3">
-        <v>15370.21640016</v>
+        <v>1375.44856875</v>
       </c>
       <c r="E3">
-        <v>3888.49912383461</v>
+        <v>815.5701622753147</v>
       </c>
       <c r="F3">
-        <v>7702.265105597137</v>
+        <v>-232.8203500452701</v>
       </c>
       <c r="G3">
-        <v>23038.16769472286</v>
+        <v>2983.71748754527</v>
       </c>
       <c r="H3">
-        <v>15120425.43606253</v>
+        <v>665154.6895937832</v>
       </c>
       <c r="I3">
-        <v>0.2529892242632402</v>
+        <v>0.5929484975337902</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -670,31 +667,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4">
-        <v>17020.97182666</v>
+        <v>412755.64224464</v>
       </c>
       <c r="E4">
-        <v>3530.65785484555</v>
+        <v>13588.65532731092</v>
       </c>
       <c r="F4">
-        <v>10058.66796428347</v>
+        <v>385959.4044443678</v>
       </c>
       <c r="G4">
-        <v>23983.27568903653</v>
+        <v>439551.8800449122</v>
       </c>
       <c r="H4">
-        <v>12465544.88798258</v>
+        <v>184651553.6044554</v>
       </c>
       <c r="I4">
-        <v>0.2074298630419839</v>
+        <v>0.03292179182194421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -703,26 +700,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5">
-        <v>18866.03602025</v>
+        <v>383332.01711197</v>
       </c>
       <c r="E5">
-        <v>3723.690586901452</v>
+        <v>16407.16052119625</v>
       </c>
       <c r="F5">
-        <v>11523.07999864104</v>
+        <v>350977.809549608</v>
       </c>
       <c r="G5">
-        <v>26208.99204185897</v>
+        <v>415686.224674332</v>
       </c>
       <c r="H5">
-        <v>13865871.58697848</v>
+        <v>269194916.3683009</v>
       </c>
       <c r="I5">
-        <v>0.1973753565881355</v>
+        <v>0.04280143528006891</v>
       </c>
     </row>
     <row r="6">
@@ -736,26 +733,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D6">
-        <v>9781248.691228669</v>
+        <v>384935.04167766</v>
       </c>
       <c r="E6">
-        <v>115199.0317311033</v>
+        <v>16589.05109962892</v>
       </c>
       <c r="F6">
-        <v>9554081.206715055</v>
+        <v>352222.15379882</v>
       </c>
       <c r="G6">
-        <v>10008416.17574228</v>
+        <v>417647.9295565</v>
       </c>
       <c r="H6">
-        <v>13270816911.78375</v>
+        <v>275196616.3860996</v>
       </c>
       <c r="I6">
-        <v>0.01177753836628324</v>
+        <v>0.04309571564939623</v>
       </c>
     </row>
     <row r="7">
@@ -769,31 +766,31 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D7">
-        <v>10060750.67993044</v>
+        <v>399970.7969882</v>
       </c>
       <c r="E7">
-        <v>114715.8451198842</v>
+        <v>15900.35626559242</v>
       </c>
       <c r="F7">
-        <v>9834536.018416913</v>
+        <v>368615.9853943307</v>
       </c>
       <c r="G7">
-        <v>10286965.34144397</v>
+        <v>431325.6085820693</v>
       </c>
       <c r="H7">
-        <v>13159725121.56927</v>
+        <v>252821329.3727641</v>
       </c>
       <c r="I7">
-        <v>0.01140231467505935</v>
+        <v>0.03975379299019551</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -802,31 +799,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8">
-        <v>10039809.72478078</v>
+        <v>2038.18080791</v>
       </c>
       <c r="E8">
-        <v>104303.5913118626</v>
+        <v>806.9365493086792</v>
       </c>
       <c r="F8">
-        <v>9834127.575304391</v>
+        <v>446.9369987048235</v>
       </c>
       <c r="G8">
-        <v>10245491.87425717</v>
+        <v>3629.424617115177</v>
       </c>
       <c r="H8">
-        <v>10879239160.55206</v>
+        <v>651146.5946101985</v>
       </c>
       <c r="I8">
-        <v>0.0103890008049072</v>
+        <v>0.3959101892123749</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -835,26 +832,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9">
-        <v>10129312.15459179</v>
+        <v>1863.1628238</v>
       </c>
       <c r="E9">
-        <v>92940.17240965758</v>
+        <v>836.8579416355299</v>
       </c>
       <c r="F9">
-        <v>9946038.173384679</v>
+        <v>212.9153291827663</v>
       </c>
       <c r="G9">
-        <v>10312586.1357989</v>
+        <v>3513.410318417234</v>
       </c>
       <c r="H9">
-        <v>8637875647.536875</v>
+        <v>700331.2144784559</v>
       </c>
       <c r="I9">
-        <v>0.00917536857303052</v>
+        <v>0.449159853849339</v>
       </c>
     </row>
     <row r="10">
@@ -868,26 +865,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D10">
-        <v>558004.32461037</v>
+        <v>547.01576575</v>
       </c>
       <c r="E10">
-        <v>36304.43404175784</v>
+        <v>321.5491293322245</v>
       </c>
       <c r="F10">
-        <v>486413.5583163695</v>
+        <v>-87.06514413513298</v>
       </c>
       <c r="G10">
-        <v>629595.0909043704</v>
+        <v>1181.096675635133</v>
       </c>
       <c r="H10">
-        <v>1318011931.092346</v>
+        <v>103393.8425743116</v>
       </c>
       <c r="I10">
-        <v>0.06506120551504263</v>
+        <v>0.5878242446839833</v>
       </c>
     </row>
     <row r="11">
@@ -901,31 +898,31 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D11">
-        <v>564546.1609947199</v>
+        <v>646.85294412</v>
       </c>
       <c r="E11">
-        <v>35394.72037175403</v>
+        <v>395.8112313661979</v>
       </c>
       <c r="F11">
-        <v>494749.3105256788</v>
+        <v>-133.6696038609183</v>
       </c>
       <c r="G11">
-        <v>634343.0114637611</v>
+        <v>1427.375492100918</v>
       </c>
       <c r="H11">
-        <v>1252786230.194659</v>
+        <v>156666.5308756258</v>
       </c>
       <c r="I11">
-        <v>0.06269588355607481</v>
+        <v>0.6119029602696986</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -934,31 +931,31 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D12">
-        <v>534368.21007567</v>
+        <v>119711.45321403</v>
       </c>
       <c r="E12">
-        <v>27540.58627379484</v>
+        <v>9542.345028199974</v>
       </c>
       <c r="F12">
-        <v>480059.3707405303</v>
+        <v>100894.3634881629</v>
       </c>
       <c r="G12">
-        <v>588677.0494108098</v>
+        <v>138528.5429398971</v>
       </c>
       <c r="H12">
-        <v>758483892.3043365</v>
+        <v>91056348.63721277</v>
       </c>
       <c r="I12">
-        <v>0.05153859409019655</v>
+        <v>0.07971121201861432</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -967,26 +964,26 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D13">
-        <v>529587.27485546</v>
+        <v>120792.34053188</v>
       </c>
       <c r="E13">
-        <v>23837.01489958987</v>
+        <v>9390.604541231374</v>
       </c>
       <c r="F13">
-        <v>482581.7173287873</v>
+        <v>102274.4764523186</v>
       </c>
       <c r="G13">
-        <v>576592.8323821328</v>
+        <v>139310.2046114414</v>
       </c>
       <c r="H13">
-        <v>568203279.3232694</v>
+        <v>88183453.64979531</v>
       </c>
       <c r="I13">
-        <v>0.04501055072763161</v>
+        <v>0.0777417218664868</v>
       </c>
     </row>
     <row r="14">
@@ -1000,26 +997,26 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D14">
-        <v>11733654.53921885</v>
+        <v>112221.96199307</v>
       </c>
       <c r="E14">
-        <v>130569.885951883</v>
+        <v>8135.53604143049</v>
       </c>
       <c r="F14">
-        <v>11476176.39813383</v>
+        <v>96179.03845517515</v>
       </c>
       <c r="G14">
-        <v>11991132.68030387</v>
+        <v>128264.8855309648</v>
       </c>
       <c r="H14">
-        <v>17048495117.48773</v>
+        <v>66186946.68141448</v>
       </c>
       <c r="I14">
-        <v>0.01112781065059168</v>
+        <v>0.0724950437235528</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1030,31 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D15">
-        <v>11699459.90632469</v>
+        <v>119611.44679923</v>
       </c>
       <c r="E15">
-        <v>113943.9043227724</v>
+        <v>7994.186410787735</v>
       </c>
       <c r="F15">
-        <v>11474767.4785178</v>
+        <v>103847.2585905087</v>
       </c>
       <c r="G15">
-        <v>11924152.33413158</v>
+        <v>135375.6350079513</v>
       </c>
       <c r="H15">
-        <v>12983213332.31712</v>
+        <v>63907016.37042328</v>
       </c>
       <c r="I15">
-        <v>0.009739244822846457</v>
+        <v>0.06683462682468946</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1066,31 +1063,31 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D16">
-        <v>11459110.3022385</v>
+        <v>8551.085801929999</v>
       </c>
       <c r="E16">
-        <v>121330.8729096805</v>
+        <v>2471.681388489421</v>
       </c>
       <c r="F16">
-        <v>11219851.09338448</v>
+        <v>3677.037512593029</v>
       </c>
       <c r="G16">
-        <v>11698369.51109252</v>
+        <v>13425.13409126697</v>
       </c>
       <c r="H16">
-        <v>14721180721.02505</v>
+        <v>6109208.886204991</v>
       </c>
       <c r="I16">
-        <v>0.01058815821730758</v>
+        <v>0.2890488349364425</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1099,26 +1096,26 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D17">
-        <v>11593449.14205704</v>
+        <v>13982.36604043</v>
       </c>
       <c r="E17">
-        <v>126602.2034738641</v>
+        <v>3060.157597507408</v>
       </c>
       <c r="F17">
-        <v>11343795.09840006</v>
+        <v>7947.868239583547</v>
       </c>
       <c r="G17">
-        <v>11843103.18571402</v>
+        <v>20016.86384127645</v>
       </c>
       <c r="H17">
-        <v>16028117924.43769</v>
+        <v>9364564.521582313</v>
       </c>
       <c r="I17">
-        <v>0.0109201499849251</v>
+        <v>0.2188583526320914</v>
       </c>
     </row>
     <row r="18">
@@ -1132,26 +1129,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D18">
-        <v>844955.68469873</v>
+        <v>12424.73470425</v>
       </c>
       <c r="E18">
-        <v>26911.57784731532</v>
+        <v>3566.423093235744</v>
       </c>
       <c r="F18">
-        <v>791887.2226465761</v>
+        <v>5391.9033459732</v>
       </c>
       <c r="G18">
-        <v>898024.1467508839</v>
+        <v>19457.5660625268</v>
       </c>
       <c r="H18">
-        <v>724233022.2321128</v>
+        <v>12719373.67996521</v>
       </c>
       <c r="I18">
-        <v>0.03184969145087257</v>
+        <v>0.2870421927009688</v>
       </c>
     </row>
     <row r="19">
@@ -1165,31 +1162,31 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19">
-        <v>933233.92601463</v>
+        <v>7468.70421768</v>
       </c>
       <c r="E19">
-        <v>26132.81051658169</v>
+        <v>1712.694402257974</v>
       </c>
       <c r="F19">
-        <v>881701.1592967657</v>
+        <v>4091.345282844045</v>
       </c>
       <c r="G19">
-        <v>984766.6927324943</v>
+        <v>10846.06315251596</v>
       </c>
       <c r="H19">
-        <v>682923785.4955623</v>
+        <v>2933322.115525799</v>
       </c>
       <c r="I19">
-        <v>0.02800242231675149</v>
+        <v>0.229316137356687</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1198,31 +1195,31 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D20">
-        <v>975564.5459017</v>
+        <v>110570.50300136</v>
       </c>
       <c r="E20">
-        <v>29621.87652407845</v>
+        <v>8077.881701940803</v>
       </c>
       <c r="F20">
-        <v>917151.4926370262</v>
+        <v>94641.27131552636</v>
       </c>
       <c r="G20">
-        <v>1033977.599166374</v>
+        <v>126499.7346871936</v>
       </c>
       <c r="H20">
-        <v>877455568.8077499</v>
+        <v>65252172.79055005</v>
       </c>
       <c r="I20">
-        <v>0.030363830510773</v>
+        <v>0.07305638920573099</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1231,26 +1228,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D21">
-        <v>933176.65034437</v>
+        <v>88068.04067161</v>
       </c>
       <c r="E21">
-        <v>22967.79909893817</v>
+        <v>7215.637174905351</v>
       </c>
       <c r="F21">
-        <v>887885.1486041595</v>
+        <v>73839.11772360918</v>
       </c>
       <c r="G21">
-        <v>978468.1520845806</v>
+        <v>102296.9636196108</v>
       </c>
       <c r="H21">
-        <v>527519795.449185</v>
+        <v>52065419.83987607</v>
       </c>
       <c r="I21">
-        <v>0.02461248798977382</v>
+        <v>0.08193252762158265</v>
       </c>
     </row>
     <row r="22">
@@ -1264,26 +1261,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D22">
-        <v>7727298.20512694</v>
+        <v>115973.02421824</v>
       </c>
       <c r="E22">
-        <v>81110.83324125303</v>
+        <v>9071.781306780134</v>
       </c>
       <c r="F22">
-        <v>7567351.166707139</v>
+        <v>98083.8657023142</v>
       </c>
       <c r="G22">
-        <v>7887245.243546742</v>
+        <v>133862.1827341658</v>
       </c>
       <c r="H22">
-        <v>6578967269.090358</v>
+        <v>82297216.07804549</v>
       </c>
       <c r="I22">
-        <v>0.01049666145761494</v>
+        <v>0.07822320205868481</v>
       </c>
     </row>
     <row r="23">
@@ -1297,31 +1294,31 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D23">
-        <v>7927367.01126336</v>
+        <v>101034.92499305</v>
       </c>
       <c r="E23">
-        <v>82760.42493051429</v>
+        <v>7285.7739970418</v>
       </c>
       <c r="F23">
-        <v>7764167.049716577</v>
+        <v>86667.69527964418</v>
       </c>
       <c r="G23">
-        <v>8090566.972810144</v>
+        <v>115402.1547064558</v>
       </c>
       <c r="H23">
-        <v>6849287934.679291</v>
+        <v>53082502.73597044</v>
       </c>
       <c r="I23">
-        <v>0.01043983769301038</v>
+        <v>0.07211144064830033</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1330,31 +1327,31 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D24">
-        <v>8141405.5405894</v>
+        <v>298031.78260046</v>
       </c>
       <c r="E24">
-        <v>86522.18788795687</v>
+        <v>12962.31119750449</v>
       </c>
       <c r="F24">
-        <v>7970787.545960763</v>
+        <v>272470.6682059132</v>
       </c>
       <c r="G24">
-        <v>8312023.535218036</v>
+        <v>323592.8969950068</v>
       </c>
       <c r="H24">
-        <v>7486088996.91891</v>
+        <v>168021511.5809504</v>
       </c>
       <c r="I24">
-        <v>0.01062742636472241</v>
+        <v>0.04349304991703421</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1363,26 +1360,26 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D25">
-        <v>8245683.91592685</v>
+        <v>327192.9201724</v>
       </c>
       <c r="E25">
-        <v>83698.21579145805</v>
+        <v>14512.80694680416</v>
       </c>
       <c r="F25">
-        <v>8080634.671554689</v>
+        <v>298574.2955381873</v>
       </c>
       <c r="G25">
-        <v>8410733.160299011</v>
+        <v>355811.5448066128</v>
       </c>
       <c r="H25">
-        <v>7005391326.673477</v>
+        <v>210621565.4752072</v>
       </c>
       <c r="I25">
-        <v>0.01015054865610259</v>
+        <v>0.04435550420576727</v>
       </c>
     </row>
     <row r="26">
@@ -1396,26 +1393,26 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D26">
-        <v>16987640.93765969</v>
+        <v>324505.052247</v>
       </c>
       <c r="E26">
-        <v>119689.4350202973</v>
+        <v>13519.67548574343</v>
       </c>
       <c r="F26">
-        <v>16751618.57299362</v>
+        <v>297844.8396967283</v>
       </c>
       <c r="G26">
-        <v>17223663.30232576</v>
+        <v>351165.2647972717</v>
       </c>
       <c r="H26">
-        <v>14325560855.47797</v>
+        <v>182781625.2398118</v>
       </c>
       <c r="I26">
-        <v>0.007045677234380395</v>
+        <v>0.041662449912961</v>
       </c>
     </row>
     <row r="27">
@@ -1429,31 +1426,31 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D27">
-        <v>17043831.53296721</v>
+        <v>318906.50573178</v>
       </c>
       <c r="E27">
-        <v>118697.105560125</v>
+        <v>13428.20312436043</v>
       </c>
       <c r="F27">
-        <v>16809765.99887418</v>
+        <v>292426.6727031557</v>
       </c>
       <c r="G27">
-        <v>17277897.06706024</v>
+        <v>345386.3387604044</v>
       </c>
       <c r="H27">
-        <v>14089002868.35146</v>
+        <v>180316639.1490831</v>
       </c>
       <c r="I27">
-        <v>0.006964226637099403</v>
+        <v>0.0421070215972777</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1462,31 +1459,31 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D28">
-        <v>17383280.60187299</v>
+        <v>80002.59504535</v>
       </c>
       <c r="E28">
-        <v>113029.4577158381</v>
+        <v>7118.295224777877</v>
       </c>
       <c r="F28">
-        <v>17160391.42303702</v>
+        <v>65965.62619293327</v>
       </c>
       <c r="G28">
-        <v>17606169.78070896</v>
+        <v>94039.56389776673</v>
       </c>
       <c r="H28">
-        <v>12775658311.53642</v>
+        <v>50670126.90709552</v>
       </c>
       <c r="I28">
-        <v>0.006502193705810599</v>
+        <v>0.08897580410663959</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1495,26 +1492,26 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D29">
-        <v>17665034.68196298</v>
+        <v>89073.59491729</v>
       </c>
       <c r="E29">
-        <v>111187.2561814022</v>
+        <v>7854.166613715705</v>
       </c>
       <c r="F29">
-        <v>17445778.24449867</v>
+        <v>73585.51966372969</v>
       </c>
       <c r="G29">
-        <v>17884291.11942729</v>
+        <v>104561.6701708503</v>
       </c>
       <c r="H29">
-        <v>12362605937.14876</v>
+        <v>61687933.19600643</v>
       </c>
       <c r="I29">
-        <v>0.00629419971051236</v>
+        <v>0.08817614940778751</v>
       </c>
     </row>
     <row r="30">
@@ -1528,26 +1525,26 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D30">
-        <v>4263041.02440612</v>
+        <v>91314.59307813</v>
       </c>
       <c r="E30">
-        <v>56079.95268700759</v>
+        <v>8044.354456891951</v>
       </c>
       <c r="F30">
-        <v>4152453.794703647</v>
+        <v>75451.47566258117</v>
       </c>
       <c r="G30">
-        <v>4373628.254108594</v>
+        <v>107177.7104936788</v>
       </c>
       <c r="H30">
-        <v>3144961093.377009</v>
+        <v>64711638.62811739</v>
       </c>
       <c r="I30">
-        <v>0.01315491743240262</v>
+        <v>0.08809494940210807</v>
       </c>
     </row>
     <row r="31">
@@ -1561,31 +1558,31 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D31">
-        <v>4329387.66270025</v>
+        <v>66495.23038867</v>
       </c>
       <c r="E31">
-        <v>55962.54335939316</v>
+        <v>7133.835972241794</v>
       </c>
       <c r="F31">
-        <v>4219031.959089722</v>
+        <v>52427.61585758923</v>
       </c>
       <c r="G31">
-        <v>4439743.366310777</v>
+        <v>80562.84491975076</v>
       </c>
       <c r="H31">
-        <v>3131806259.251959</v>
+        <v>50891615.67885103</v>
       </c>
       <c r="I31">
-        <v>0.01292620289967038</v>
+        <v>0.1072834236462367</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1594,31 +1591,31 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D32">
-        <v>4248064.6958073</v>
+        <v>29086.61579131</v>
       </c>
       <c r="E32">
-        <v>58425.6901811849</v>
+        <v>4889.720741579011</v>
       </c>
       <c r="F32">
-        <v>4132851.773702087</v>
+        <v>19444.29897538974</v>
       </c>
       <c r="G32">
-        <v>4363277.617912512</v>
+        <v>38728.93260723026</v>
       </c>
       <c r="H32">
-        <v>3413561273.147806</v>
+        <v>23909368.93062799</v>
       </c>
       <c r="I32">
-        <v>0.01375348408390511</v>
+        <v>0.1681089603775726</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1627,26 +1624,26 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D33">
-        <v>4237106.68079672</v>
+        <v>42697.51365986</v>
       </c>
       <c r="E33">
-        <v>57366.46824698734</v>
+        <v>5376.154506832726</v>
       </c>
       <c r="F33">
-        <v>4123982.498316463</v>
+        <v>32095.97059720266</v>
       </c>
       <c r="G33">
-        <v>4350230.863276977</v>
+        <v>53299.05672251734</v>
       </c>
       <c r="H33">
-        <v>3290911679.132607</v>
+        <v>28903037.28133783</v>
       </c>
       <c r="I33">
-        <v>0.01353906629421955</v>
+        <v>0.1259125894229026</v>
       </c>
     </row>
     <row r="34">
@@ -1660,26 +1657,26 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D34">
-        <v>1253018.35129765</v>
+        <v>30174.02113318</v>
       </c>
       <c r="E34">
-        <v>37613.1086531381</v>
+        <v>5171.762847930577</v>
       </c>
       <c r="F34">
-        <v>1178846.935539442</v>
+        <v>19975.52953988522</v>
       </c>
       <c r="G34">
-        <v>1327189.767055858</v>
+        <v>40372.51272647478</v>
       </c>
       <c r="H34">
-        <v>1414745942.552772</v>
+        <v>26747130.95523499</v>
       </c>
       <c r="I34">
-        <v>0.0300180030198163</v>
+        <v>0.1713978665655402</v>
       </c>
     </row>
     <row r="35">
@@ -1693,31 +1690,31 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D35">
-        <v>1235858.29246894</v>
+        <v>30379.22834747</v>
       </c>
       <c r="E35">
-        <v>34885.66406453058</v>
+        <v>4886.35327314473</v>
       </c>
       <c r="F35">
-        <v>1167065.278916321</v>
+        <v>20743.55203296628</v>
       </c>
       <c r="G35">
-        <v>1304651.306021559</v>
+        <v>40014.90466197372</v>
       </c>
       <c r="H35">
-        <v>1217009557.22328</v>
+        <v>23876448.30997222</v>
       </c>
       <c r="I35">
-        <v>0.02822788363125163</v>
+        <v>0.1608452070360658</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1726,31 +1723,31 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D36">
-        <v>1262294.61223865</v>
+        <v>16397.19159646</v>
       </c>
       <c r="E36">
-        <v>37764.8890797178</v>
+        <v>3891.684122789089</v>
       </c>
       <c r="F36">
-        <v>1187823.892074959</v>
+        <v>8722.959622365419</v>
       </c>
       <c r="G36">
-        <v>1336765.332402341</v>
+        <v>24071.42357055458</v>
       </c>
       <c r="H36">
-        <v>1426186847.203389</v>
+        <v>15145205.31156868</v>
       </c>
       <c r="I36">
-        <v>0.02991765053385014</v>
+        <v>0.2373384551796825</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1759,26 +1756,26 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D37">
-        <v>1280038.33302938</v>
+        <v>15859.49432475</v>
       </c>
       <c r="E37">
-        <v>38996.75426267532</v>
+        <v>3381.066895078872</v>
       </c>
       <c r="F37">
-        <v>1203138.42825652</v>
+        <v>9192.177334446267</v>
       </c>
       <c r="G37">
-        <v>1356938.23780224</v>
+        <v>22526.81131505373</v>
       </c>
       <c r="H37">
-        <v>1520746843.023486</v>
+        <v>11431613.34899828</v>
       </c>
       <c r="I37">
-        <v>0.03046530190262689</v>
+        <v>0.2131888208946516</v>
       </c>
     </row>
     <row r="38">
@@ -1792,26 +1789,26 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D38">
-        <v>1281433.5191258</v>
+        <v>13855.46566932</v>
       </c>
       <c r="E38">
-        <v>35412.44033636149</v>
+        <v>2963.275723821503</v>
       </c>
       <c r="F38">
-        <v>1211601.725656587</v>
+        <v>8012.014713307839</v>
       </c>
       <c r="G38">
-        <v>1351265.312595013</v>
+        <v>19698.91662533216</v>
       </c>
       <c r="H38">
-        <v>1254040930.576362</v>
+        <v>8781003.015389852</v>
       </c>
       <c r="I38">
-        <v>0.02763501953696359</v>
+        <v>0.2138705255055448</v>
       </c>
     </row>
     <row r="39">
@@ -1825,31 +1822,31 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D39">
-        <v>1322166.26081492</v>
+        <v>12186.87278522</v>
       </c>
       <c r="E39">
-        <v>40281.551092622</v>
+        <v>2593.650280555893</v>
       </c>
       <c r="F39">
-        <v>1242732.792525213</v>
+        <v>7072.307140977417</v>
       </c>
       <c r="G39">
-        <v>1401599.729104627</v>
+        <v>17301.43842946259</v>
       </c>
       <c r="H39">
-        <v>1622603358.427517</v>
+        <v>6727021.777827661</v>
       </c>
       <c r="I39">
-        <v>0.03046632809083661</v>
+        <v>0.2128232834022376</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1858,31 +1855,31 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D40">
-        <v>1275832.78415027</v>
+        <v>10893.14879942</v>
       </c>
       <c r="E40">
-        <v>34426.73842259904</v>
+        <v>2493.970259298502</v>
       </c>
       <c r="F40">
-        <v>1207944.752020583</v>
+        <v>5975.147825427081</v>
       </c>
       <c r="G40">
-        <v>1343720.816279958</v>
+        <v>15811.14977341292</v>
       </c>
       <c r="H40">
-        <v>1185200318.418057</v>
+        <v>6219887.654265436</v>
       </c>
       <c r="I40">
-        <v>0.02698373866096248</v>
+        <v>0.2289485166521632</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1891,26 +1888,26 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D41">
-        <v>1294238.74047916</v>
+        <v>21327.32341735</v>
       </c>
       <c r="E41">
-        <v>36357.39104456234</v>
+        <v>4128.617621677676</v>
       </c>
       <c r="F41">
-        <v>1222543.545276915</v>
+        <v>13185.8688795696</v>
       </c>
       <c r="G41">
-        <v>1365933.935681405</v>
+        <v>29468.77795513039</v>
       </c>
       <c r="H41">
-        <v>1321859883.567222</v>
+        <v>17045483.46602743</v>
       </c>
       <c r="I41">
-        <v>0.02809171902171767</v>
+        <v>0.1935834863515505</v>
       </c>
     </row>
     <row r="42">
@@ -1924,26 +1921,26 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D42">
-        <v>548758.16613889</v>
+        <v>18043.43343228</v>
       </c>
       <c r="E42">
-        <v>21766.51156397479</v>
+        <v>3793.954090165182</v>
       </c>
       <c r="F42">
-        <v>505835.5512147784</v>
+        <v>10561.92083558807</v>
       </c>
       <c r="G42">
-        <v>591680.7810630015</v>
+        <v>25524.94602897193</v>
       </c>
       <c r="H42">
-        <v>473781025.6646481</v>
+        <v>14394087.63828111</v>
       </c>
       <c r="I42">
-        <v>0.03966503444882807</v>
+        <v>0.2102678575230441</v>
       </c>
     </row>
     <row r="43">
@@ -1957,31 +1954,31 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D43">
-        <v>569279.69021969</v>
+        <v>10443.14060542</v>
       </c>
       <c r="E43">
-        <v>21852.41683249767</v>
+        <v>2944.214809592615</v>
       </c>
       <c r="F43">
-        <v>526187.673839129</v>
+        <v>4637.276943960916</v>
       </c>
       <c r="G43">
-        <v>612371.7066002509</v>
+        <v>16249.00426687908</v>
       </c>
       <c r="H43">
-        <v>477528121.4212275</v>
+        <v>8668400.845024481</v>
       </c>
       <c r="I43">
-        <v>0.03838608193463679</v>
+        <v>0.2819281019796445</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1990,31 +1987,31 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D44">
-        <v>584342.37511946</v>
+        <v>1037693.45506498</v>
       </c>
       <c r="E44">
-        <v>23373.88848524758</v>
+        <v>30402.39224807765</v>
       </c>
       <c r="F44">
-        <v>538250.0827563654</v>
+        <v>977741.2587104745</v>
       </c>
       <c r="G44">
-        <v>630434.6674825547</v>
+        <v>1097645.651419485</v>
       </c>
       <c r="H44">
-        <v>546338662.9207894</v>
+        <v>924305454.4059719</v>
       </c>
       <c r="I44">
-        <v>0.04000033110805824</v>
+        <v>0.0292980476071075</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2023,26 +2020,26 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D45">
-        <v>543775.36522758</v>
+        <v>1111370.84694758</v>
       </c>
       <c r="E45">
-        <v>23167.51384694334</v>
+        <v>32539.9602378394</v>
       </c>
       <c r="F45">
-        <v>498090.0346830569</v>
+        <v>1047203.459406881</v>
       </c>
       <c r="G45">
-        <v>589460.6957721029</v>
+        <v>1175538.234488279</v>
       </c>
       <c r="H45">
-        <v>536733697.8483116</v>
+        <v>1058849012.280169</v>
       </c>
       <c r="I45">
-        <v>0.04260493455279519</v>
+        <v>0.02927911986103609</v>
       </c>
     </row>
     <row r="46">
@@ -2056,26 +2053,26 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D46">
-        <v>24497532.97707174</v>
+        <v>1104883.05501111</v>
       </c>
       <c r="E46">
-        <v>142497.8152718237</v>
+        <v>33898.01196826452</v>
       </c>
       <c r="F46">
-        <v>24216533.47770489</v>
+        <v>1038037.648473167</v>
       </c>
       <c r="G46">
-        <v>24778532.47643859</v>
+        <v>1171728.461549053</v>
       </c>
       <c r="H46">
-        <v>20305627357.24278</v>
+        <v>1149075215.400604</v>
       </c>
       <c r="I46">
-        <v>0.005816823081948427</v>
+        <v>0.03068018087029461</v>
       </c>
     </row>
     <row r="47">
@@ -2089,31 +2086,31 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D47">
-        <v>24622352.92021254</v>
+        <v>1105732.00373772</v>
       </c>
       <c r="E47">
-        <v>144884.3556159637</v>
+        <v>34088.29528236828</v>
       </c>
       <c r="F47">
-        <v>24336647.26699594</v>
+        <v>1038511.366773268</v>
       </c>
       <c r="G47">
-        <v>24908058.57342914</v>
+        <v>1172952.640702172</v>
       </c>
       <c r="H47">
-        <v>20991476502.25302</v>
+        <v>1162011875.257931</v>
       </c>
       <c r="I47">
-        <v>0.005884261186794532</v>
+        <v>0.03082871361879658</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2122,31 +2119,31 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D48">
-        <v>24926029.92615584</v>
+        <v>561741.61848301</v>
       </c>
       <c r="E48">
-        <v>133581.8285318513</v>
+        <v>18638.5920936995</v>
       </c>
       <c r="F48">
-        <v>24662612.36518934</v>
+        <v>524987.1248282003</v>
       </c>
       <c r="G48">
-        <v>25189447.48712234</v>
+        <v>598496.1121378196</v>
       </c>
       <c r="H48">
-        <v>17844104913.91293</v>
+        <v>347397115.2353176</v>
       </c>
       <c r="I48">
-        <v>0.005359129750208588</v>
+        <v>0.03318000924345475</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2155,26 +2152,26 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D49">
-        <v>25126282.25221795</v>
+        <v>596241.94337647</v>
       </c>
       <c r="E49">
-        <v>152132.7063027756</v>
+        <v>19072.13096053595</v>
       </c>
       <c r="F49">
-        <v>24826283.16642946</v>
+        <v>558632.5299160148</v>
       </c>
       <c r="G49">
-        <v>25426281.33800644</v>
+        <v>633851.3568369253</v>
       </c>
       <c r="H49">
-        <v>23144360327.00658</v>
+        <v>363746179.3758337</v>
       </c>
       <c r="I49">
-        <v>0.006054724084353805</v>
+        <v>0.03198723466606862</v>
       </c>
     </row>
     <row r="50">
@@ -2188,26 +2185,26 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D50">
-        <v>9808977.693056799</v>
+        <v>588276.06269337</v>
       </c>
       <c r="E50">
-        <v>96653.12251346272</v>
+        <v>21170.12250984969</v>
       </c>
       <c r="F50">
-        <v>9618381.935594011</v>
+        <v>546529.5010674606</v>
       </c>
       <c r="G50">
-        <v>9999573.450519588</v>
+        <v>630022.6243192794</v>
       </c>
       <c r="H50">
-        <v>9341826091.602434</v>
+        <v>448174087.0820447</v>
       </c>
       <c r="I50">
-        <v>0.009853536784152114</v>
+        <v>0.03598671415070699</v>
       </c>
     </row>
     <row r="51">
@@ -2221,212 +2218,26 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D51">
-        <v>10095078.98555006</v>
+        <v>594341.72874434</v>
       </c>
       <c r="E51">
-        <v>93841.0476059643</v>
+        <v>19337.02139322264</v>
       </c>
       <c r="F51">
-        <v>9910028.51760404</v>
+        <v>556209.9628616385</v>
       </c>
       <c r="G51">
-        <v>10280129.45349608</v>
+        <v>632473.4946270415</v>
       </c>
       <c r="H51">
-        <v>8806142215.784857</v>
+        <v>373920396.36195</v>
       </c>
       <c r="I51">
-        <v>0.009295721979024327</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>10134889.69759761</v>
-      </c>
-      <c r="E52">
-        <v>91229.10436483876</v>
-      </c>
-      <c r="F52">
-        <v>9954989.868219141</v>
-      </c>
-      <c r="G52">
-        <v>10314789.52697608</v>
-      </c>
-      <c r="H52">
-        <v>8322749483.210642</v>
-      </c>
-      <c r="I52">
-        <v>0.009001489615270687</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>10086391.43670775</v>
-      </c>
-      <c r="E53">
-        <v>97606.87693559825</v>
-      </c>
-      <c r="F53">
-        <v>9893914.916970622</v>
-      </c>
-      <c r="G53">
-        <v>10278867.95644488</v>
-      </c>
-      <c r="H53">
-        <v>9527102425.121021</v>
-      </c>
-      <c r="I53">
-        <v>0.009677085957657185</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>108977552.8677184</v>
-      </c>
-      <c r="E54">
-        <v>161111.0656487123</v>
-      </c>
-      <c r="F54">
-        <v>108659848.847461</v>
-      </c>
-      <c r="G54">
-        <v>109295256.8879757</v>
-      </c>
-      <c r="H54">
-        <v>25956775474.4637</v>
-      </c>
-      <c r="I54">
-        <v>0.001478387625791853</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>108239639.7541407</v>
-      </c>
-      <c r="E55">
-        <v>163808.0926588901</v>
-      </c>
-      <c r="F55">
-        <v>107916617.3138206</v>
-      </c>
-      <c r="G55">
-        <v>108562662.1944608</v>
-      </c>
-      <c r="H55">
-        <v>26833091220.54353</v>
-      </c>
-      <c r="I55">
-        <v>0.001513383572145745</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>108067596.0116487</v>
-      </c>
-      <c r="E56">
-        <v>160930.3285541117</v>
-      </c>
-      <c r="F56">
-        <v>107750248.3970878</v>
-      </c>
-      <c r="G56">
-        <v>108384943.6262096</v>
-      </c>
-      <c r="H56">
-        <v>25898570648.53435</v>
-      </c>
-      <c r="I56">
-        <v>0.001489163583658925</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>107753464.3357955</v>
-      </c>
-      <c r="E57">
-        <v>172775.1122559731</v>
-      </c>
-      <c r="F57">
-        <v>107412759.3224985</v>
-      </c>
-      <c r="G57">
-        <v>108094169.3490925</v>
-      </c>
-      <c r="H57">
-        <v>29851239415.06412</v>
-      </c>
-      <c r="I57">
-        <v>0.001603429767395215</v>
+        <v>0.03253519054446299</v>
       </c>
     </row>
   </sheetData>
@@ -2435,3798 +2246,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cod_SCN_PR</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trimestre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>somaH</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_se</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_low</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_upp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_var</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>somaH_cv</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>82036009.43614244</v>
-      </c>
-      <c r="E2">
-        <v>21996581.74926236</v>
-      </c>
-      <c r="F2">
-        <v>38659706.10451589</v>
-      </c>
-      <c r="G2">
-        <v>125412312.767769</v>
-      </c>
-      <c r="H2">
-        <v>483849608651981.9</v>
-      </c>
-      <c r="I2">
-        <v>0.2681332490506464</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>101735462.352659</v>
-      </c>
-      <c r="E3">
-        <v>25737975.70066128</v>
-      </c>
-      <c r="F3">
-        <v>50981292.73394746</v>
-      </c>
-      <c r="G3">
-        <v>152489631.9713706</v>
-      </c>
-      <c r="H3">
-        <v>662443393167830.5</v>
-      </c>
-      <c r="I3">
-        <v>0.2529892242632401</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>112661812.5206625</v>
-      </c>
-      <c r="E4">
-        <v>23369424.34122269</v>
-      </c>
-      <c r="F4">
-        <v>66578323.25559227</v>
-      </c>
-      <c r="G4">
-        <v>158745301.7857328</v>
-      </c>
-      <c r="H4">
-        <v>546129994040131.7</v>
-      </c>
-      <c r="I4">
-        <v>0.2074298630419839</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>124874292.4180347</v>
-      </c>
-      <c r="E5">
-        <v>24647107.99470071</v>
-      </c>
-      <c r="F5">
-        <v>76271266.51100501</v>
-      </c>
-      <c r="G5">
-        <v>173477318.3250645</v>
-      </c>
-      <c r="H5">
-        <v>607479932502439.8</v>
-      </c>
-      <c r="I5">
-        <v>0.1973753565881355</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>71618478979652.77</v>
-      </c>
-      <c r="E6">
-        <v>843489383917.7096</v>
-      </c>
-      <c r="F6">
-        <v>69955154569029.36</v>
-      </c>
-      <c r="G6">
-        <v>73281803390276.17</v>
-      </c>
-      <c r="H6">
-        <v>7.114743407818772E+23</v>
-      </c>
-      <c r="I6">
-        <v>0.01177753836628323</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>73664997571962.92</v>
-      </c>
-      <c r="E7">
-        <v>839951482853.0037</v>
-      </c>
-      <c r="F7">
-        <v>72008649748496.98</v>
-      </c>
-      <c r="G7">
-        <v>75321345395428.86</v>
-      </c>
-      <c r="H7">
-        <v>7.055184935469597E+23</v>
-      </c>
-      <c r="I7">
-        <v>0.01140231467505934</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>73511667521419.92</v>
-      </c>
-      <c r="E8">
-        <v>763712773050.1014</v>
-      </c>
-      <c r="F8">
-        <v>72005659120675.13</v>
-      </c>
-      <c r="G8">
-        <v>75017675922164.72</v>
-      </c>
-      <c r="H8">
-        <v>5.832571997198758E+23</v>
-      </c>
-      <c r="I8">
-        <v>0.01038900080490719</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>74167005923539.88</v>
-      </c>
-      <c r="E9">
-        <v>680509615306.6158</v>
-      </c>
-      <c r="F9">
-        <v>72825070534209.75</v>
-      </c>
-      <c r="G9">
-        <v>75508941312870</v>
-      </c>
-      <c r="H9">
-        <v>4.630933365247583E+23</v>
-      </c>
-      <c r="I9">
-        <v>0.009175368573030515</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>150146129653.1845</v>
-      </c>
-      <c r="E10">
-        <v>9768688198.654072</v>
-      </c>
-      <c r="F10">
-        <v>130882701031.0938</v>
-      </c>
-      <c r="G10">
-        <v>169409558275.2753</v>
-      </c>
-      <c r="H10">
-        <v>9.542726912252333E+19</v>
-      </c>
-      <c r="I10">
-        <v>0.0650612055150426</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>151906387361.9763</v>
-      </c>
-      <c r="E11">
-        <v>9523905173.470459</v>
-      </c>
-      <c r="F11">
-        <v>133125660228.3181</v>
-      </c>
-      <c r="G11">
-        <v>170687114495.6345</v>
-      </c>
-      <c r="H11">
-        <v>9.070476975325738E+19</v>
-      </c>
-      <c r="I11">
-        <v>0.06269588355607481</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>143786194862.5311</v>
-      </c>
-      <c r="E12">
-        <v>7410538332.793895</v>
-      </c>
-      <c r="F12">
-        <v>129172935300.7497</v>
-      </c>
-      <c r="G12">
-        <v>158399454424.3124</v>
-      </c>
-      <c r="H12">
-        <v>5.491607838180771E+19</v>
-      </c>
-      <c r="I12">
-        <v>0.05153859409019656</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>142499755156.2826</v>
-      </c>
-      <c r="E13">
-        <v>6413992458.136943</v>
-      </c>
-      <c r="F13">
-        <v>129851640753.6781</v>
-      </c>
-      <c r="G13">
-        <v>155147869558.8871</v>
-      </c>
-      <c r="H13">
-        <v>4.113929925303758E+19</v>
-      </c>
-      <c r="I13">
-        <v>0.04501055072763161</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>53618952605541.28</v>
-      </c>
-      <c r="E14">
-        <v>596661551877.5128</v>
-      </c>
-      <c r="F14">
-        <v>52442361953613.02</v>
-      </c>
-      <c r="G14">
-        <v>54795543257469.55</v>
-      </c>
-      <c r="H14">
-        <v>3.56005007488882E+23</v>
-      </c>
-      <c r="I14">
-        <v>0.01112781065059168</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>53462694349054.56</v>
-      </c>
-      <c r="E15">
-        <v>520686269154.4521</v>
-      </c>
-      <c r="F15">
-        <v>52435923653093.41</v>
-      </c>
-      <c r="G15">
-        <v>54489465045015.71</v>
-      </c>
-      <c r="H15">
-        <v>2.711141908859825E+23</v>
-      </c>
-      <c r="I15">
-        <v>0.009739244822846455</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>52364375493050.81</v>
-      </c>
-      <c r="E16">
-        <v>554442292670.9254</v>
-      </c>
-      <c r="F16">
-        <v>51271039385608.44</v>
-      </c>
-      <c r="G16">
-        <v>53457711600493.19</v>
-      </c>
-      <c r="H16">
-        <v>3.074062559021921E+23</v>
-      </c>
-      <c r="I16">
-        <v>0.01058815821730758</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>52978259927882.08</v>
-      </c>
-      <c r="E17">
-        <v>578530544352.8195</v>
-      </c>
-      <c r="F17">
-        <v>51837422834896.01</v>
-      </c>
-      <c r="G17">
-        <v>54119097020868.15</v>
-      </c>
-      <c r="H17">
-        <v>3.346975907491696E+23</v>
-      </c>
-      <c r="I17">
-        <v>0.0109201499849251</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>337436432507.1766</v>
-      </c>
-      <c r="E18">
-        <v>10747246259.63676</v>
-      </c>
-      <c r="F18">
-        <v>316243329912.8008</v>
-      </c>
-      <c r="G18">
-        <v>358629535101.5525</v>
-      </c>
-      <c r="H18">
-        <v>1.155033021652764E+20</v>
-      </c>
-      <c r="I18">
-        <v>0.03184969145087257</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>372690701289.6465</v>
-      </c>
-      <c r="E19">
-        <v>10436242411.03896</v>
-      </c>
-      <c r="F19">
-        <v>352110884769.8006</v>
-      </c>
-      <c r="G19">
-        <v>393270517809.4925</v>
-      </c>
-      <c r="H19">
-        <v>1.089151556619683E+20</v>
-      </c>
-      <c r="I19">
-        <v>0.02800242231675149</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>389595603664.0275</v>
-      </c>
-      <c r="E20">
-        <v>11829614877.39683</v>
-      </c>
-      <c r="F20">
-        <v>366268117190.567</v>
-      </c>
-      <c r="G20">
-        <v>412923090137.4881</v>
-      </c>
-      <c r="H20">
-        <v>1.399397881475283E+20</v>
-      </c>
-      <c r="I20">
-        <v>0.03036383051077301</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>372667828021.6255</v>
-      </c>
-      <c r="E21">
-        <v>9172282441.357355</v>
-      </c>
-      <c r="F21">
-        <v>354580485635.6655</v>
-      </c>
-      <c r="G21">
-        <v>390755170407.5856</v>
-      </c>
-      <c r="H21">
-        <v>8.413076518403244E+19</v>
-      </c>
-      <c r="I21">
-        <v>0.02461248798977382</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>27902709725944.41</v>
-      </c>
-      <c r="E22">
-        <v>292885297743.3381</v>
-      </c>
-      <c r="F22">
-        <v>27325152646344.31</v>
-      </c>
-      <c r="G22">
-        <v>28480266805544.5</v>
-      </c>
-      <c r="H22">
-        <v>8.578179763420383E+22</v>
-      </c>
-      <c r="I22">
-        <v>0.01049666145761494</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>28625143579880.17</v>
-      </c>
-      <c r="E23">
-        <v>298841852913.067</v>
-      </c>
-      <c r="F23">
-        <v>28035840432331.93</v>
-      </c>
-      <c r="G23">
-        <v>29214446727428.41</v>
-      </c>
-      <c r="H23">
-        <v>8.930645305251518E+22</v>
-      </c>
-      <c r="I23">
-        <v>0.01043983769301038</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>29398021084463.86</v>
-      </c>
-      <c r="E24">
-        <v>312425304343.6964</v>
-      </c>
-      <c r="F24">
-        <v>28781931960973.46</v>
-      </c>
-      <c r="G24">
-        <v>30014110207954.26</v>
-      </c>
-      <c r="H24">
-        <v>9.760957079425133E+22</v>
-      </c>
-      <c r="I24">
-        <v>0.01062742636472241</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>29774562685485.99</v>
-      </c>
-      <c r="E25">
-        <v>302228147253.2023</v>
-      </c>
-      <c r="F25">
-        <v>29178581912652.96</v>
-      </c>
-      <c r="G25">
-        <v>30370543458319.03</v>
-      </c>
-      <c r="H25">
-        <v>9.134185299210331E+22</v>
-      </c>
-      <c r="I25">
-        <v>0.01015054865610259</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>133203439157454.3</v>
-      </c>
-      <c r="E26">
-        <v>938508438812.8508</v>
-      </c>
-      <c r="F26">
-        <v>131352741299701.8</v>
-      </c>
-      <c r="G26">
-        <v>135054137015206.8</v>
-      </c>
-      <c r="H26">
-        <v>8.807980897229345E+23</v>
-      </c>
-      <c r="I26">
-        <v>0.0070456772343804</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>133644040684807.9</v>
-      </c>
-      <c r="E27">
-        <v>930727388026.7367</v>
-      </c>
-      <c r="F27">
-        <v>131808686721074.2</v>
-      </c>
-      <c r="G27">
-        <v>135479394648541.5</v>
-      </c>
-      <c r="H27">
-        <v>8.662534708230716E+23</v>
-      </c>
-      <c r="I27">
-        <v>0.006964226637099412</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>136305727705564.7</v>
-      </c>
-      <c r="E28">
-        <v>886286244753.0563</v>
-      </c>
-      <c r="F28">
-        <v>134558009745143.6</v>
-      </c>
-      <c r="G28">
-        <v>138053445665985.8</v>
-      </c>
-      <c r="H28">
-        <v>7.855033076384744E+23</v>
-      </c>
-      <c r="I28">
-        <v>0.0065021937058106</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>138515016953104.1</v>
-      </c>
-      <c r="E29">
-        <v>871841179607.8425</v>
-      </c>
-      <c r="F29">
-        <v>136795784033428.2</v>
-      </c>
-      <c r="G29">
-        <v>140234249872779.9</v>
-      </c>
-      <c r="H29">
-        <v>7.601070424599943E+23</v>
-      </c>
-      <c r="I29">
-        <v>0.006294199710512361</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>8164554854737.479</v>
-      </c>
-      <c r="E30">
-        <v>107404044986.3934</v>
-      </c>
-      <c r="F30">
-        <v>7952758745347.45</v>
-      </c>
-      <c r="G30">
-        <v>8376350964127.507</v>
-      </c>
-      <c r="H30">
-        <v>1.153562887943922E+22</v>
-      </c>
-      <c r="I30">
-        <v>0.01315491743240261</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>8291621604665.205</v>
-      </c>
-      <c r="E31">
-        <v>107179183229.1929</v>
-      </c>
-      <c r="F31">
-        <v>8080268912888.841</v>
-      </c>
-      <c r="G31">
-        <v>8502974296441.569</v>
-      </c>
-      <c r="H31">
-        <v>1.148737731767692E+22</v>
-      </c>
-      <c r="I31">
-        <v>0.01292620289967038</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>8135872265086.662</v>
-      </c>
-      <c r="E32">
-        <v>111896589706.5545</v>
-      </c>
-      <c r="F32">
-        <v>7915217052735.369</v>
-      </c>
-      <c r="G32">
-        <v>8356527477437.955</v>
-      </c>
-      <c r="H32">
-        <v>1.2520846787957E+22</v>
-      </c>
-      <c r="I32">
-        <v>0.01375348408390512</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>8114885529528.475</v>
-      </c>
-      <c r="E33">
-        <v>109867973154.2889</v>
-      </c>
-      <c r="F33">
-        <v>7898230660863.199</v>
-      </c>
-      <c r="G33">
-        <v>8331540398193.75</v>
-      </c>
-      <c r="H33">
-        <v>1.207097152503155E+22</v>
-      </c>
-      <c r="I33">
-        <v>0.01353906629421955</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>528539429815.9156</v>
-      </c>
-      <c r="E34">
-        <v>15865698200.30614</v>
-      </c>
-      <c r="F34">
-        <v>497252962420.6987</v>
-      </c>
-      <c r="G34">
-        <v>559825897211.1326</v>
-      </c>
-      <c r="H34">
-        <v>2.517203793831976E+20</v>
-      </c>
-      <c r="I34">
-        <v>0.0300180030198163</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>521301093921.201</v>
-      </c>
-      <c r="E35">
-        <v>14715226616.05184</v>
-      </c>
-      <c r="F35">
-        <v>492283306495.53</v>
-      </c>
-      <c r="G35">
-        <v>550318881346.8719</v>
-      </c>
-      <c r="H35">
-        <v>2.165378943617605E+20</v>
-      </c>
-      <c r="I35">
-        <v>0.02822788363125164</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>532452277272.2217</v>
-      </c>
-      <c r="E36">
-        <v>15929721157.38301</v>
-      </c>
-      <c r="F36">
-        <v>501039559387.8147</v>
-      </c>
-      <c r="G36">
-        <v>563864995156.6287</v>
-      </c>
-      <c r="H36">
-        <v>2.537560161519758E+20</v>
-      </c>
-      <c r="I36">
-        <v>0.02991765053385014</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>539936809370.1219</v>
-      </c>
-      <c r="E37">
-        <v>16449337905.80187</v>
-      </c>
-      <c r="F37">
-        <v>507499429838.1675</v>
-      </c>
-      <c r="G37">
-        <v>572374188902.0763</v>
-      </c>
-      <c r="H37">
-        <v>2.705807175392502E+20</v>
-      </c>
-      <c r="I37">
-        <v>0.03046530190262689</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>535540540613.6117</v>
-      </c>
-      <c r="E38">
-        <v>14799673302.6932</v>
-      </c>
-      <c r="F38">
-        <v>506356227991.5779</v>
-      </c>
-      <c r="G38">
-        <v>564724853235.6455</v>
-      </c>
-      <c r="H38">
-        <v>2.190303298664499E+20</v>
-      </c>
-      <c r="I38">
-        <v>0.02763501953696359</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>552563690218.5538</v>
-      </c>
-      <c r="E39">
-        <v>16834586677.28186</v>
-      </c>
-      <c r="F39">
-        <v>519366616850.5145</v>
-      </c>
-      <c r="G39">
-        <v>585760763586.5931</v>
-      </c>
-      <c r="H39">
-        <v>2.83403308594916E+20</v>
-      </c>
-      <c r="I39">
-        <v>0.0304663280908366</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>533199864650.4333</v>
-      </c>
-      <c r="E40">
-        <v>14387725801.78785</v>
-      </c>
-      <c r="F40">
-        <v>504827894598.6979</v>
-      </c>
-      <c r="G40">
-        <v>561571834702.1686</v>
-      </c>
-      <c r="H40">
-        <v>2.070066537474319E+20</v>
-      </c>
-      <c r="I40">
-        <v>0.02698373866096247</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>540892137137.272</v>
-      </c>
-      <c r="E41">
-        <v>15194589937.51663</v>
-      </c>
-      <c r="F41">
-        <v>510929066072.7642</v>
-      </c>
-      <c r="G41">
-        <v>570855208201.7797</v>
-      </c>
-      <c r="H41">
-        <v>2.308755633692817E+20</v>
-      </c>
-      <c r="I41">
-        <v>0.02809171902171768</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>115778644166.4814</v>
-      </c>
-      <c r="E42">
-        <v>4592363909.302092</v>
-      </c>
-      <c r="F42">
-        <v>106722702101.9476</v>
-      </c>
-      <c r="G42">
-        <v>124834586231.0152</v>
-      </c>
-      <c r="H42">
-        <v>2.108980627546039E+19</v>
-      </c>
-      <c r="I42">
-        <v>0.03966503444882806</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>120108336881.6208</v>
-      </c>
-      <c r="E43">
-        <v>4610488460.570855</v>
-      </c>
-      <c r="F43">
-        <v>111016653989.601</v>
-      </c>
-      <c r="G43">
-        <v>129200019773.6407</v>
-      </c>
-      <c r="H43">
-        <v>2.125660384505701E+19</v>
-      </c>
-      <c r="I43">
-        <v>0.03838608193463679</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>123286307329.829</v>
-      </c>
-      <c r="E44">
-        <v>4931493114.28299</v>
-      </c>
-      <c r="F44">
-        <v>113561617210.1862</v>
-      </c>
-      <c r="G44">
-        <v>133010997449.4718</v>
-      </c>
-      <c r="H44">
-        <v>2.431962433622055E+19</v>
-      </c>
-      <c r="I44">
-        <v>0.04000033110805826</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>10</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>114727357881.8105</v>
-      </c>
-      <c r="E45">
-        <v>4887951573.969649</v>
-      </c>
-      <c r="F45">
-        <v>105088529787.5354</v>
-      </c>
-      <c r="G45">
-        <v>124366185976.0856</v>
-      </c>
-      <c r="H45">
-        <v>2.389207058947237E+19</v>
-      </c>
-      <c r="I45">
-        <v>0.0426049345527952</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>11</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>240934633188880.3</v>
-      </c>
-      <c r="E46">
-        <v>1401474135573.856</v>
-      </c>
-      <c r="F46">
-        <v>238170987095635.8</v>
-      </c>
-      <c r="G46">
-        <v>243698279282124.7</v>
-      </c>
-      <c r="H46">
-        <v>1.964129752682487E+24</v>
-      </c>
-      <c r="I46">
-        <v>0.005816823081948427</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>11</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>242162244444406.8</v>
-      </c>
-      <c r="E47">
-        <v>1424945895891.275</v>
-      </c>
-      <c r="F47">
-        <v>239352313059799.3</v>
-      </c>
-      <c r="G47">
-        <v>244972175829014.3</v>
-      </c>
-      <c r="H47">
-        <v>2.030470806217389E+24</v>
-      </c>
-      <c r="I47">
-        <v>0.005884261186794543</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>245148925107448.5</v>
-      </c>
-      <c r="E48">
-        <v>1313784897774.983</v>
-      </c>
-      <c r="F48">
-        <v>242558198380542</v>
-      </c>
-      <c r="G48">
-        <v>247739651834355</v>
-      </c>
-      <c r="H48">
-        <v>1.726030757621623E+24</v>
-      </c>
-      <c r="I48">
-        <v>0.005359129750208584</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>11</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>247118418148651.9</v>
-      </c>
-      <c r="E49">
-        <v>1496233838052.058</v>
-      </c>
-      <c r="F49">
-        <v>244167910039974.3</v>
-      </c>
-      <c r="G49">
-        <v>250068926257329.6</v>
-      </c>
-      <c r="H49">
-        <v>2.238715698131992E+24</v>
-      </c>
-      <c r="I49">
-        <v>0.006054724084353808</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>12</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>45955099727881.88</v>
-      </c>
-      <c r="E50">
-        <v>452820265588.0626</v>
-      </c>
-      <c r="F50">
-        <v>45062157841785.69</v>
-      </c>
-      <c r="G50">
-        <v>46848041613978.08</v>
-      </c>
-      <c r="H50">
-        <v>2.050461929272436E+23</v>
-      </c>
-      <c r="I50">
-        <v>0.009853536784152107</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>12</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>47295485427617.98</v>
-      </c>
-      <c r="E51">
-        <v>439645683398.1331</v>
-      </c>
-      <c r="F51">
-        <v>46428523245088.99</v>
-      </c>
-      <c r="G51">
-        <v>48162447610146.96</v>
-      </c>
-      <c r="H51">
-        <v>1.932883269306115E+23</v>
-      </c>
-      <c r="I51">
-        <v>0.009295721979024325</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>47481998772803.59</v>
-      </c>
-      <c r="E52">
-        <v>427408718865.6873</v>
-      </c>
-      <c r="F52">
-        <v>46639167352566.14</v>
-      </c>
-      <c r="G52">
-        <v>48324830193041.05</v>
-      </c>
-      <c r="H52">
-        <v>1.826782129624081E+23</v>
-      </c>
-      <c r="I52">
-        <v>0.009001489615270692</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>47254784226541.55</v>
-      </c>
-      <c r="E53">
-        <v>457288608870.7856</v>
-      </c>
-      <c r="F53">
-        <v>46353030961667.03</v>
-      </c>
-      <c r="G53">
-        <v>48156537491416.08</v>
-      </c>
-      <c r="H53">
-        <v>2.091128718029783E+23</v>
-      </c>
-      <c r="I53">
-        <v>0.009677085957657186</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>4158227605722021</v>
-      </c>
-      <c r="E54">
-        <v>6147472237525.54</v>
-      </c>
-      <c r="F54">
-        <v>4146105057612626</v>
-      </c>
-      <c r="G54">
-        <v>4170350153831415</v>
-      </c>
-      <c r="H54">
-        <v>3.779141491114727E+25</v>
-      </c>
-      <c r="I54">
-        <v>0.001478387625791858</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>4130071250594213</v>
-      </c>
-      <c r="E55">
-        <v>6250381982440.722</v>
-      </c>
-      <c r="F55">
-        <v>4117745768939866</v>
-      </c>
-      <c r="G55">
-        <v>4142396732248560</v>
-      </c>
-      <c r="H55">
-        <v>3.906727492641961E+25</v>
-      </c>
-      <c r="I55">
-        <v>0.001513383572145747</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>4123506623103537</v>
-      </c>
-      <c r="E56">
-        <v>6140575900102.197</v>
-      </c>
-      <c r="F56">
-        <v>4111397674271856</v>
-      </c>
-      <c r="G56">
-        <v>4135615571935218</v>
-      </c>
-      <c r="H56">
-        <v>3.770667238491591E+25</v>
-      </c>
-      <c r="I56">
-        <v>0.00148916358365893</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>4111520383992900</v>
-      </c>
-      <c r="E57">
-        <v>6592534172946.415</v>
-      </c>
-      <c r="F57">
-        <v>4098520193087355</v>
-      </c>
-      <c r="G57">
-        <v>4124520574898445</v>
-      </c>
-      <c r="H57">
-        <v>4.346150682146627E+25</v>
-      </c>
-      <c r="I57">
-        <v>0.001603429767395214</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cod_SCN_PR</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trimestre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>somaE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_se</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_low</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_upp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_var</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>somaE_cv</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>79383689.44530781</v>
-      </c>
-      <c r="E2">
-        <v>21285406.57259789</v>
-      </c>
-      <c r="F2">
-        <v>37409792.65741415</v>
-      </c>
-      <c r="G2">
-        <v>121357586.2332015</v>
-      </c>
-      <c r="H2">
-        <v>453068532960793.3</v>
-      </c>
-      <c r="I2">
-        <v>0.2681332490506464</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>98446236.04302479</v>
-      </c>
-      <c r="E3">
-        <v>24905836.88816068</v>
-      </c>
-      <c r="F3">
-        <v>49333008.00134966</v>
-      </c>
-      <c r="G3">
-        <v>147559464.0846999</v>
-      </c>
-      <c r="H3">
-        <v>620300711099665</v>
-      </c>
-      <c r="I3">
-        <v>0.2529892242632402</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>109019324.5497573</v>
-      </c>
-      <c r="E4">
-        <v>22613863.56028575</v>
-      </c>
-      <c r="F4">
-        <v>64425768.3112356</v>
-      </c>
-      <c r="G4">
-        <v>153612880.788279</v>
-      </c>
-      <c r="H4">
-        <v>511386825123219.6</v>
-      </c>
-      <c r="I4">
-        <v>0.2074298630419839</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>120836960.7097013</v>
-      </c>
-      <c r="E5">
-        <v>23850238.2091038</v>
-      </c>
-      <c r="F5">
-        <v>73805327.39129584</v>
-      </c>
-      <c r="G5">
-        <v>167868594.0281067</v>
-      </c>
-      <c r="H5">
-        <v>568833862630994.9</v>
-      </c>
-      <c r="I5">
-        <v>0.1973753565881355</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>67597661955154.63</v>
-      </c>
-      <c r="E6">
-        <v>796134057147.8781</v>
-      </c>
-      <c r="F6">
-        <v>66027720191060.18</v>
-      </c>
-      <c r="G6">
-        <v>69167603719249.09</v>
-      </c>
-      <c r="H6">
-        <v>6.338294369507408E+23</v>
-      </c>
-      <c r="I6">
-        <v>0.01177753836628323</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>69529284546961.2</v>
-      </c>
-      <c r="E7">
-        <v>792794781536.1924</v>
-      </c>
-      <c r="F7">
-        <v>67965927689262.27</v>
-      </c>
-      <c r="G7">
-        <v>71092641404660.13</v>
-      </c>
-      <c r="H7">
-        <v>6.285235656310189E+23</v>
-      </c>
-      <c r="I7">
-        <v>0.01140231467505934</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>69384562778615.38</v>
-      </c>
-      <c r="E8">
-        <v>720836278555.1689</v>
-      </c>
-      <c r="F8">
-        <v>67963104961784.44</v>
-      </c>
-      <c r="G8">
-        <v>70806020595446.33</v>
-      </c>
-      <c r="H8">
-        <v>5.196049404812651E+23</v>
-      </c>
-      <c r="I8">
-        <v>0.01038900080490719</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>70003109058903.2</v>
-      </c>
-      <c r="E9">
-        <v>642304326873.4883</v>
-      </c>
-      <c r="F9">
-        <v>68736512838123.81</v>
-      </c>
-      <c r="G9">
-        <v>71269705279682.59</v>
-      </c>
-      <c r="H9">
-        <v>4.125548483204049E+23</v>
-      </c>
-      <c r="I9">
-        <v>0.009175368573030517</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>141377091691.9326</v>
-      </c>
-      <c r="E10">
-        <v>9198164017.687851</v>
-      </c>
-      <c r="F10">
-        <v>123238711962.152</v>
-      </c>
-      <c r="G10">
-        <v>159515471421.7131</v>
-      </c>
-      <c r="H10">
-        <v>8.460622129628751E+19</v>
-      </c>
-      <c r="I10">
-        <v>0.06506120551504263</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>143034544441.9442</v>
-      </c>
-      <c r="E11">
-        <v>8967677142.828344</v>
-      </c>
-      <c r="F11">
-        <v>125350674813.407</v>
-      </c>
-      <c r="G11">
-        <v>160718414070.4814</v>
-      </c>
-      <c r="H11">
-        <v>8.041923333800593E+19</v>
-      </c>
-      <c r="I11">
-        <v>0.06269588355607482</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>135388598441.1919</v>
-      </c>
-      <c r="E12">
-        <v>6977738019.501209</v>
-      </c>
-      <c r="F12">
-        <v>121628802289.5622</v>
-      </c>
-      <c r="G12">
-        <v>149148394592.8216</v>
-      </c>
-      <c r="H12">
-        <v>4.868882786879266E+19</v>
-      </c>
-      <c r="I12">
-        <v>0.05153859409019657</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>134177291131.9291</v>
-      </c>
-      <c r="E13">
-        <v>6039393768.989888</v>
-      </c>
-      <c r="F13">
-        <v>122267869065.8562</v>
-      </c>
-      <c r="G13">
-        <v>146086713198.0019</v>
-      </c>
-      <c r="H13">
-        <v>3.647427709691389E+19</v>
-      </c>
-      <c r="I13">
-        <v>0.04501055072763161</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>51510731693516.21</v>
-      </c>
-      <c r="E14">
-        <v>573201668758.8807</v>
-      </c>
-      <c r="F14">
-        <v>50380402911631.11</v>
-      </c>
-      <c r="G14">
-        <v>52641060475401.31</v>
-      </c>
-      <c r="H14">
-        <v>3.285601530679656E+23</v>
-      </c>
-      <c r="I14">
-        <v>0.01112781065059169</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>51360617289305.48</v>
-      </c>
-      <c r="E15">
-        <v>500213626033.0665</v>
-      </c>
-      <c r="F15">
-        <v>50374217755925.68</v>
-      </c>
-      <c r="G15">
-        <v>52347016822685.29</v>
-      </c>
-      <c r="H15">
-        <v>2.502136716691485E+23</v>
-      </c>
-      <c r="I15">
-        <v>0.009739244822846454</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>50305482767716.71</v>
-      </c>
-      <c r="E16">
-        <v>532642410742.6244</v>
-      </c>
-      <c r="F16">
-        <v>49255135080106.77</v>
-      </c>
-      <c r="G16">
-        <v>51355830455326.66</v>
-      </c>
-      <c r="H16">
-        <v>2.837079377217146E+23</v>
-      </c>
-      <c r="I16">
-        <v>0.01058815821730758</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>50895230140181.27</v>
-      </c>
-      <c r="E17">
-        <v>555783546648.0599</v>
-      </c>
-      <c r="F17">
-        <v>49799249138181.17</v>
-      </c>
-      <c r="G17">
-        <v>51991211142181.36</v>
-      </c>
-      <c r="H17">
-        <v>3.088953507246962E+23</v>
-      </c>
-      <c r="I17">
-        <v>0.0109201499849251</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>326459613207.2554</v>
-      </c>
-      <c r="E18">
-        <v>10397637951.82229</v>
-      </c>
-      <c r="F18">
-        <v>305955923003.3991</v>
-      </c>
-      <c r="G18">
-        <v>346963303411.1118</v>
-      </c>
-      <c r="H18">
-        <v>1.081108749771752E+20</v>
-      </c>
-      <c r="I18">
-        <v>0.03184969145087257</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>360567059356.7905</v>
-      </c>
-      <c r="E19">
-        <v>10096751069.61805</v>
-      </c>
-      <c r="F19">
-        <v>340656705009.3763</v>
-      </c>
-      <c r="G19">
-        <v>380477413704.2047</v>
-      </c>
-      <c r="H19">
-        <v>1.019443821618333E+20</v>
-      </c>
-      <c r="I19">
-        <v>0.0280024223167515</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>376922044648.2185</v>
-      </c>
-      <c r="E20">
-        <v>11444797079.47252</v>
-      </c>
-      <c r="F20">
-        <v>354353402149.7193</v>
-      </c>
-      <c r="G20">
-        <v>399490687146.7177</v>
-      </c>
-      <c r="H20">
-        <v>1.309833801903028E+20</v>
-      </c>
-      <c r="I20">
-        <v>0.03036383051077301</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>360544930157.0018</v>
-      </c>
-      <c r="E21">
-        <v>8873907763.263046</v>
-      </c>
-      <c r="F21">
-        <v>343045969670.1489</v>
-      </c>
-      <c r="G21">
-        <v>378043890643.8548</v>
-      </c>
-      <c r="H21">
-        <v>7.874623899090017E+19</v>
-      </c>
-      <c r="I21">
-        <v>0.02461248798977381</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>26502167835457.97</v>
-      </c>
-      <c r="E22">
-        <v>278184283661.6937</v>
-      </c>
-      <c r="F22">
-        <v>25953600516783.3</v>
-      </c>
-      <c r="G22">
-        <v>27050735154132.63</v>
-      </c>
-      <c r="H22">
-        <v>7.738649567636968E+22</v>
-      </c>
-      <c r="I22">
-        <v>0.01049666145761493</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>27188340018556.73</v>
-      </c>
-      <c r="E23">
-        <v>283841856936.1109</v>
-      </c>
-      <c r="F23">
-        <v>26628616211239</v>
-      </c>
-      <c r="G23">
-        <v>27748063825874.46</v>
-      </c>
-      <c r="H23">
-        <v>8.056619974893965E+22</v>
-      </c>
-      <c r="I23">
-        <v>0.01043983769301037</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>27922423895854.2</v>
-      </c>
-      <c r="E24">
-        <v>296743503877.7557</v>
-      </c>
-      <c r="F24">
-        <v>27337258601418.26</v>
-      </c>
-      <c r="G24">
-        <v>28507589190290.13</v>
-      </c>
-      <c r="H24">
-        <v>8.805670709364763E+22</v>
-      </c>
-      <c r="I24">
-        <v>0.0106274263647224</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>28280065458459.91</v>
-      </c>
-      <c r="E25">
-        <v>287058180433.8636</v>
-      </c>
-      <c r="F25">
-        <v>27713999200972.36</v>
-      </c>
-      <c r="G25">
-        <v>28846131715947.47</v>
-      </c>
-      <c r="H25">
-        <v>8.240239895400062E+22</v>
-      </c>
-      <c r="I25">
-        <v>0.01015054865610259</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>129851913501581.6</v>
-      </c>
-      <c r="E26">
-        <v>914894670798.8273</v>
-      </c>
-      <c r="F26">
-        <v>128047780968198.8</v>
-      </c>
-      <c r="G26">
-        <v>131656046034964.4</v>
-      </c>
-      <c r="H26">
-        <v>8.370322586560945E+23</v>
-      </c>
-      <c r="I26">
-        <v>0.007045677234380408</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>130281429074005.7</v>
-      </c>
-      <c r="E27">
-        <v>907309398676.5676</v>
-      </c>
-      <c r="F27">
-        <v>128492254367624.3</v>
-      </c>
-      <c r="G27">
-        <v>132070603780387.1</v>
-      </c>
-      <c r="H27">
-        <v>8.232103449268348E+23</v>
-      </c>
-      <c r="I27">
-        <v>0.006964226637099406</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>132876145509060</v>
-      </c>
-      <c r="E28">
-        <v>863986436981.3833</v>
-      </c>
-      <c r="F28">
-        <v>131172401800509.8</v>
-      </c>
-      <c r="G28">
-        <v>134579889217610.1</v>
-      </c>
-      <c r="H28">
-        <v>7.464725632877858E+23</v>
-      </c>
-      <c r="I28">
-        <v>0.006502193705810602</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>135029846930630.2</v>
-      </c>
-      <c r="E29">
-        <v>849904823461.3015</v>
-      </c>
-      <c r="F29">
-        <v>133353871552014.6</v>
-      </c>
-      <c r="G29">
-        <v>136705822309245.9</v>
-      </c>
-      <c r="H29">
-        <v>7.223382089427861E+23</v>
-      </c>
-      <c r="I29">
-        <v>0.006294199710512363</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>7859389326046.392</v>
-      </c>
-      <c r="E30">
-        <v>103389617653.2467</v>
-      </c>
-      <c r="F30">
-        <v>7655509492907.385</v>
-      </c>
-      <c r="G30">
-        <v>8063269159185.398</v>
-      </c>
-      <c r="H30">
-        <v>1.068941303848455E+22</v>
-      </c>
-      <c r="I30">
-        <v>0.01315491743240262</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>7981706718218.471</v>
-      </c>
-      <c r="E31">
-        <v>103173160525.3542</v>
-      </c>
-      <c r="F31">
-        <v>7778253729129.362</v>
-      </c>
-      <c r="G31">
-        <v>8185159707307.579</v>
-      </c>
-      <c r="H31">
-        <v>1.06447010527905E+22</v>
-      </c>
-      <c r="I31">
-        <v>0.01292620289967038</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>7831778801901.992</v>
-      </c>
-      <c r="E32">
-        <v>107714245100.6245</v>
-      </c>
-      <c r="F32">
-        <v>7619370991366.679</v>
-      </c>
-      <c r="G32">
-        <v>8044186612437.306</v>
-      </c>
-      <c r="H32">
-        <v>1.160235859759741E+22</v>
-      </c>
-      <c r="I32">
-        <v>0.01375348408390511</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>7811576484890.321</v>
-      </c>
-      <c r="E33">
-        <v>105761451891.2967</v>
-      </c>
-      <c r="F33">
-        <v>7603019497703.712</v>
-      </c>
-      <c r="G33">
-        <v>8020133472076.931</v>
-      </c>
-      <c r="H33">
-        <v>1.118548470615507E+22</v>
-      </c>
-      <c r="I33">
-        <v>0.01353906629421956</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>515113338181.7613</v>
-      </c>
-      <c r="E34">
-        <v>15462673741.08777</v>
-      </c>
-      <c r="F34">
-        <v>484621617506.3936</v>
-      </c>
-      <c r="G34">
-        <v>545605058857.129</v>
-      </c>
-      <c r="H34">
-        <v>2.390942792233252E+20</v>
-      </c>
-      <c r="I34">
-        <v>0.03001800301981631</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>508058872317.3963</v>
-      </c>
-      <c r="E35">
-        <v>14341426725.6004</v>
-      </c>
-      <c r="F35">
-        <v>479778202031.9417</v>
-      </c>
-      <c r="G35">
-        <v>536339542602.851</v>
-      </c>
-      <c r="H35">
-        <v>2.056765205257654E+20</v>
-      </c>
-      <c r="I35">
-        <v>0.02822788363125164</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>518926790502.0845</v>
-      </c>
-      <c r="E36">
-        <v>15525070370.89383</v>
-      </c>
-      <c r="F36">
-        <v>488312026384.2314</v>
-      </c>
-      <c r="G36">
-        <v>549541554619.9376</v>
-      </c>
-      <c r="H36">
-        <v>2.410278100212055E+20</v>
-      </c>
-      <c r="I36">
-        <v>0.02991765053385015</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>526221198631.712</v>
-      </c>
-      <c r="E37">
-        <v>16031487683.8773</v>
-      </c>
-      <c r="F37">
-        <v>494607801579.3988</v>
-      </c>
-      <c r="G37">
-        <v>557834595684.0253</v>
-      </c>
-      <c r="H37">
-        <v>2.570085973583096E+20</v>
-      </c>
-      <c r="I37">
-        <v>0.0304653019026269</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>518976730945.3916</v>
-      </c>
-      <c r="E38">
-        <v>14341932098.9054</v>
-      </c>
-      <c r="F38">
-        <v>490695064085.7408</v>
-      </c>
-      <c r="G38">
-        <v>547258397805.0424</v>
-      </c>
-      <c r="H38">
-        <v>2.056910163296129E+20</v>
-      </c>
-      <c r="I38">
-        <v>0.0276350195369636</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>535473369131.2601</v>
-      </c>
-      <c r="E39">
-        <v>16313907347.85864</v>
-      </c>
-      <c r="F39">
-        <v>503303052774.3336</v>
-      </c>
-      <c r="G39">
-        <v>567643685488.1868</v>
-      </c>
-      <c r="H39">
-        <v>2.661435729545161E+20</v>
-      </c>
-      <c r="I39">
-        <v>0.03046632809083662</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>516708450082.5069</v>
-      </c>
-      <c r="E40">
-        <v>13942725780.93735</v>
-      </c>
-      <c r="F40">
-        <v>489214000734.0799</v>
-      </c>
-      <c r="G40">
-        <v>544202899430.9339</v>
-      </c>
-      <c r="H40">
-        <v>1.94399602202415E+20</v>
-      </c>
-      <c r="I40">
-        <v>0.02698373866096249</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>524162807177.8384</v>
-      </c>
-      <c r="E41">
-        <v>14724634300.87462</v>
-      </c>
-      <c r="F41">
-        <v>495126468206.5148</v>
-      </c>
-      <c r="G41">
-        <v>553199146149.1619</v>
-      </c>
-      <c r="H41">
-        <v>2.168148552944934E+20</v>
-      </c>
-      <c r="I41">
-        <v>0.02809171902171768</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>111985627722.1294</v>
-      </c>
-      <c r="E42">
-        <v>4441913781.371898</v>
-      </c>
-      <c r="F42">
-        <v>103226366771.9511</v>
-      </c>
-      <c r="G42">
-        <v>120744888672.3078</v>
-      </c>
-      <c r="H42">
-        <v>1.973059804114159E+19</v>
-      </c>
-      <c r="I42">
-        <v>0.03966503444882805</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>116173475662.8224</v>
-      </c>
-      <c r="E43">
-        <v>4459444555.424631</v>
-      </c>
-      <c r="F43">
-        <v>107379644788.0249</v>
-      </c>
-      <c r="G43">
-        <v>124967306537.6198</v>
-      </c>
-      <c r="H43">
-        <v>1.988664574290638E+19</v>
-      </c>
-      <c r="I43">
-        <v>0.03838608193463678</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>119247332833.0033</v>
-      </c>
-      <c r="E44">
-        <v>4769932797.072959</v>
-      </c>
-      <c r="F44">
-        <v>109841232638.1742</v>
-      </c>
-      <c r="G44">
-        <v>128653433027.8324</v>
-      </c>
-      <c r="H44">
-        <v>2.275225888859226E+19</v>
-      </c>
-      <c r="I44">
-        <v>0.04000033110805825</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>10</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>110968782557.3575</v>
-      </c>
-      <c r="E45">
-        <v>4727817718.259577</v>
-      </c>
-      <c r="F45">
-        <v>101645731467.8061</v>
-      </c>
-      <c r="G45">
-        <v>120291833646.9088</v>
-      </c>
-      <c r="H45">
-        <v>2.235226037708919E+19</v>
-      </c>
-      <c r="I45">
-        <v>0.0426049345527952</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>11</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>233168180309159.2</v>
-      </c>
-      <c r="E46">
-        <v>1356298053198.23</v>
-      </c>
-      <c r="F46">
-        <v>230493619487199</v>
-      </c>
-      <c r="G46">
-        <v>235842741131119.3</v>
-      </c>
-      <c r="H46">
-        <v>1.839544409109308E+24</v>
-      </c>
-      <c r="I46">
-        <v>0.005816823081948427</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>11</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>234356219898111.8</v>
-      </c>
-      <c r="E47">
-        <v>1379013208630.344</v>
-      </c>
-      <c r="F47">
-        <v>231636865776743.6</v>
-      </c>
-      <c r="G47">
-        <v>237075574019480</v>
-      </c>
-      <c r="H47">
-        <v>1.901677429576957E+24</v>
-      </c>
-      <c r="I47">
-        <v>0.005884261186794533</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>237246625839959.3</v>
-      </c>
-      <c r="E48">
-        <v>1271435450675.531</v>
-      </c>
-      <c r="F48">
-        <v>234739410382406</v>
-      </c>
-      <c r="G48">
-        <v>239753841297512.6</v>
-      </c>
-      <c r="H48">
-        <v>1.616548105234492E+24</v>
-      </c>
-      <c r="I48">
-        <v>0.005359129750208589</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>11</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>239152632886231.3</v>
-      </c>
-      <c r="E49">
-        <v>1448003206172.889</v>
-      </c>
-      <c r="F49">
-        <v>236297233487721.1</v>
-      </c>
-      <c r="G49">
-        <v>242008032284741.4</v>
-      </c>
-      <c r="H49">
-        <v>2.096713285086967E+24</v>
-      </c>
-      <c r="I49">
-        <v>0.00605472408435381</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>12</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>43421087666568.36</v>
-      </c>
-      <c r="E50">
-        <v>427851284530.4246</v>
-      </c>
-      <c r="F50">
-        <v>42577383526072.07</v>
-      </c>
-      <c r="G50">
-        <v>44264791807064.65</v>
-      </c>
-      <c r="H50">
-        <v>1.830567216743343E+23</v>
-      </c>
-      <c r="I50">
-        <v>0.009853536784152104</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>12</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>44687563102806.91</v>
-      </c>
-      <c r="E51">
-        <v>415403162523.7988</v>
-      </c>
-      <c r="F51">
-        <v>43868406117965.23</v>
-      </c>
-      <c r="G51">
-        <v>45506720087648.59</v>
-      </c>
-      <c r="H51">
-        <v>1.725597874347736E+23</v>
-      </c>
-      <c r="I51">
-        <v>0.009295721979024328</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>44863791907885.02</v>
-      </c>
-      <c r="E52">
-        <v>403840956960.4922</v>
-      </c>
-      <c r="F52">
-        <v>44067435089969.88</v>
-      </c>
-      <c r="G52">
-        <v>45660148725800.15</v>
-      </c>
-      <c r="H52">
-        <v>1.630875185187661E+23</v>
-      </c>
-      <c r="I52">
-        <v>0.009001489615270692</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>44649106208348.22</v>
-      </c>
-      <c r="E53">
-        <v>432073238710.7507</v>
-      </c>
-      <c r="F53">
-        <v>43797076557676.51</v>
-      </c>
-      <c r="G53">
-        <v>45501135859019.93</v>
-      </c>
-      <c r="H53">
-        <v>1.866872836099973E+23</v>
-      </c>
-      <c r="I53">
-        <v>0.009677085957657183</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>4009922233575400</v>
-      </c>
-      <c r="E54">
-        <v>5928219410505.538</v>
-      </c>
-      <c r="F54">
-        <v>3998232042513094</v>
-      </c>
-      <c r="G54">
-        <v>4021612424637707</v>
-      </c>
-      <c r="H54">
-        <v>3.514378537909463E+25</v>
-      </c>
-      <c r="I54">
-        <v>0.001478387625791863</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>3982770089645598</v>
-      </c>
-      <c r="E55">
-        <v>6027458825303.076</v>
-      </c>
-      <c r="F55">
-        <v>3970884202769834</v>
-      </c>
-      <c r="G55">
-        <v>3994655976521363</v>
-      </c>
-      <c r="H55">
-        <v>3.633025989072394E+25</v>
-      </c>
-      <c r="I55">
-        <v>0.001513383572145743</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>3976439593043205</v>
-      </c>
-      <c r="E56">
-        <v>5921569034579.467</v>
-      </c>
-      <c r="F56">
-        <v>3964762516233227</v>
-      </c>
-      <c r="G56">
-        <v>3988116669853182</v>
-      </c>
-      <c r="H56">
-        <v>3.50649798312904E+25</v>
-      </c>
-      <c r="I56">
-        <v>0.001489163583658928</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>3964880849447602</v>
-      </c>
-      <c r="E57">
-        <v>6357407978179.497</v>
-      </c>
-      <c r="F57">
-        <v>3952344317180553</v>
-      </c>
-      <c r="G57">
-        <v>3977417381714652</v>
-      </c>
-      <c r="H57">
-        <v>4.041663620102032E+25</v>
-      </c>
-      <c r="I57">
-        <v>0.001603429767395212</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
@@ -6252,32 +2271,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>freq</t>
+          <t>Qtd_horasHabituais</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>freq_se</t>
+          <t>Qtd_horasHabituais_se</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>freq_low</t>
+          <t>Qtd_horasHabituais_low</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>freq_upp</t>
+          <t>Qtd_horasHabituais_upp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>freq_var</t>
+          <t>Qtd_horasHabituais_var</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>freq_cv</t>
+          <t>Qtd_horasHabituais_cv</t>
         </is>
       </c>
     </row>
@@ -6296,19 +2315,19 @@
         </is>
       </c>
       <c r="D2">
-        <v>130.32523083</v>
+        <v>6255.61107984</v>
       </c>
       <c r="E2">
-        <v>134.3249828799014</v>
+        <v>6447.599178235268</v>
       </c>
       <c r="F2">
-        <v>-134.5577982165261</v>
+        <v>-6458.774314393255</v>
       </c>
       <c r="G2">
-        <v>395.2082598765261</v>
+        <v>18969.99647407325</v>
       </c>
       <c r="H2">
-        <v>18043.20102568581</v>
+        <v>41571535.16318011</v>
       </c>
       <c r="I2">
         <v>1.030690542609656</v>
@@ -6329,22 +2348,22 @@
         </is>
       </c>
       <c r="D3">
-        <v>1375.44856875</v>
+        <v>25999.96126525</v>
       </c>
       <c r="E3">
-        <v>815.5701622753147</v>
+        <v>15906.9738238711</v>
       </c>
       <c r="F3">
-        <v>-232.8203500452701</v>
+        <v>-5367.899865973934</v>
       </c>
       <c r="G3">
-        <v>2983.71748754527</v>
+        <v>57367.82239647393</v>
       </c>
       <c r="H3">
-        <v>665154.6895937832</v>
+        <v>253031816.2333204</v>
       </c>
       <c r="I3">
-        <v>0.5929484975337902</v>
+        <v>0.6118075970032854</v>
       </c>
     </row>
     <row r="4">
@@ -6362,22 +2381,22 @@
         </is>
       </c>
       <c r="D4">
-        <v>412755.64224464</v>
+        <v>7026995.06280275</v>
       </c>
       <c r="E4">
-        <v>13588.65532731092</v>
+        <v>275108.7804971575</v>
       </c>
       <c r="F4">
-        <v>385959.4044443678</v>
+        <v>6484492.502720261</v>
       </c>
       <c r="G4">
-        <v>439551.8800449122</v>
+        <v>7569497.622885238</v>
       </c>
       <c r="H4">
-        <v>184651553.6044554</v>
+        <v>75684841106.63318</v>
       </c>
       <c r="I4">
-        <v>0.03292179182194421</v>
+        <v>0.03915027377113726</v>
       </c>
     </row>
     <row r="5">
@@ -6395,22 +2414,22 @@
         </is>
       </c>
       <c r="D5">
-        <v>383332.01711197</v>
+        <v>6166513.56325078</v>
       </c>
       <c r="E5">
-        <v>16407.16052119625</v>
+        <v>291163.3624749578</v>
       </c>
       <c r="F5">
-        <v>350977.809549608</v>
+        <v>5592352.065171942</v>
       </c>
       <c r="G5">
-        <v>415686.224674332</v>
+        <v>6740675.061329618</v>
       </c>
       <c r="H5">
-        <v>269194916.3683009</v>
+        <v>84776103647.72365</v>
       </c>
       <c r="I5">
-        <v>0.04280143528006891</v>
+        <v>0.04721685268157687</v>
       </c>
     </row>
     <row r="6">
@@ -6428,22 +2447,22 @@
         </is>
       </c>
       <c r="D6">
-        <v>384935.04167766</v>
+        <v>6428772.48992654</v>
       </c>
       <c r="E6">
-        <v>16589.05109962892</v>
+        <v>273497.1678953706</v>
       </c>
       <c r="F6">
-        <v>352222.15379882</v>
+        <v>5889447.959860944</v>
       </c>
       <c r="G6">
-        <v>417647.9295565</v>
+        <v>6968097.019992136</v>
       </c>
       <c r="H6">
-        <v>275196616.3860996</v>
+        <v>74800700846.78854</v>
       </c>
       <c r="I6">
-        <v>0.04309571564939623</v>
+        <v>0.04254267332121685</v>
       </c>
     </row>
     <row r="7">
@@ -6461,22 +2480,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>399970.7969882</v>
+        <v>6773658.02406899</v>
       </c>
       <c r="E7">
-        <v>15900.35626559242</v>
+        <v>276766.16484919</v>
       </c>
       <c r="F7">
-        <v>368615.9853943307</v>
+        <v>6227887.17406717</v>
       </c>
       <c r="G7">
-        <v>431325.6085820693</v>
+        <v>7319428.874070809</v>
       </c>
       <c r="H7">
-        <v>252821329.3727641</v>
+        <v>76599510005.32904</v>
       </c>
       <c r="I7">
-        <v>0.03975379299019551</v>
+        <v>0.04085918773368107</v>
       </c>
     </row>
     <row r="8">
@@ -6494,22 +2513,22 @@
         </is>
       </c>
       <c r="D8">
-        <v>2038.18080791</v>
+        <v>38867.24509506</v>
       </c>
       <c r="E8">
-        <v>806.9365493086792</v>
+        <v>15762.60392251398</v>
       </c>
       <c r="F8">
-        <v>446.9369987048235</v>
+        <v>7784.075135610223</v>
       </c>
       <c r="G8">
-        <v>3629.424617115177</v>
+        <v>69950.41505450977</v>
       </c>
       <c r="H8">
-        <v>651146.5946101985</v>
+        <v>248459682.418053</v>
       </c>
       <c r="I8">
-        <v>0.3959101892123749</v>
+        <v>0.4055498115177038</v>
       </c>
     </row>
     <row r="9">
@@ -6527,22 +2546,22 @@
         </is>
       </c>
       <c r="D9">
-        <v>1863.1628238</v>
+        <v>43106.56197336</v>
       </c>
       <c r="E9">
-        <v>836.8579416355299</v>
+        <v>19096.35332093228</v>
       </c>
       <c r="F9">
-        <v>212.9153291827663</v>
+        <v>5449.383070803917</v>
       </c>
       <c r="G9">
-        <v>3513.410318417234</v>
+        <v>80763.74087591608</v>
       </c>
       <c r="H9">
-        <v>700331.2144784559</v>
+        <v>364670710.1578813</v>
       </c>
       <c r="I9">
-        <v>0.449159853849339</v>
+        <v>0.4430033954629434</v>
       </c>
     </row>
     <row r="10">
@@ -6560,22 +2579,22 @@
         </is>
       </c>
       <c r="D10">
-        <v>547.01576575</v>
+        <v>12016.0173606</v>
       </c>
       <c r="E10">
-        <v>321.5491293322245</v>
+        <v>6886.722672966481</v>
       </c>
       <c r="F10">
-        <v>-87.06514413513298</v>
+        <v>-1564.300482803168</v>
       </c>
       <c r="G10">
-        <v>1181.096675635133</v>
+        <v>25596.33520400317</v>
       </c>
       <c r="H10">
-        <v>103393.8425743116</v>
+        <v>47426949.17435059</v>
       </c>
       <c r="I10">
-        <v>0.5878242446839833</v>
+        <v>0.5731285555185486</v>
       </c>
     </row>
     <row r="11">
@@ -6593,22 +2612,22 @@
         </is>
       </c>
       <c r="D11">
-        <v>646.85294412</v>
+        <v>15004.83542754</v>
       </c>
       <c r="E11">
-        <v>395.8112313661979</v>
+        <v>9266.990008922165</v>
       </c>
       <c r="F11">
-        <v>-133.6696038609183</v>
+        <v>-3269.266166069663</v>
       </c>
       <c r="G11">
-        <v>1427.375492100918</v>
+        <v>33278.93702114966</v>
       </c>
       <c r="H11">
-        <v>156666.5308756258</v>
+        <v>85877103.82546322</v>
       </c>
       <c r="I11">
-        <v>0.6119029602696986</v>
+        <v>0.6176002431798389</v>
       </c>
     </row>
     <row r="12">
@@ -6626,22 +2645,22 @@
         </is>
       </c>
       <c r="D12">
-        <v>119711.45321403</v>
+        <v>1873089.71762348</v>
       </c>
       <c r="E12">
-        <v>9542.345028199974</v>
+        <v>165098.3809774929</v>
       </c>
       <c r="F12">
-        <v>100894.3634881629</v>
+        <v>1547522.884809544</v>
       </c>
       <c r="G12">
-        <v>138528.5429398971</v>
+        <v>2198656.550437416</v>
       </c>
       <c r="H12">
-        <v>91056348.63721277</v>
+        <v>27257475401.38939</v>
       </c>
       <c r="I12">
-        <v>0.07971121201861432</v>
+        <v>0.08814227072206919</v>
       </c>
     </row>
     <row r="13">
@@ -6659,22 +2678,22 @@
         </is>
       </c>
       <c r="D13">
-        <v>120792.34053188</v>
+        <v>1932989.52651504</v>
       </c>
       <c r="E13">
-        <v>9390.604541231374</v>
+        <v>151565.9363601228</v>
       </c>
       <c r="F13">
-        <v>102274.4764523186</v>
+        <v>1634108.086424051</v>
       </c>
       <c r="G13">
-        <v>139310.2046114414</v>
+        <v>2231870.966606029</v>
       </c>
       <c r="H13">
-        <v>88183453.64979531</v>
+        <v>22972233064.72081</v>
       </c>
       <c r="I13">
-        <v>0.0777417218664868</v>
+        <v>0.07841011773787464</v>
       </c>
     </row>
     <row r="14">
@@ -6692,22 +2711,22 @@
         </is>
       </c>
       <c r="D14">
-        <v>112221.96199307</v>
+        <v>1936241.06834388</v>
       </c>
       <c r="E14">
-        <v>8135.53604143049</v>
+        <v>161869.0000630885</v>
       </c>
       <c r="F14">
-        <v>96179.03845517515</v>
+        <v>1617042.434357985</v>
       </c>
       <c r="G14">
-        <v>128264.8855309648</v>
+        <v>2255439.702329775</v>
       </c>
       <c r="H14">
-        <v>66186946.68141448</v>
+        <v>26201573181.42414</v>
       </c>
       <c r="I14">
-        <v>0.0724950437235528</v>
+        <v>0.08359961097279042</v>
       </c>
     </row>
     <row r="15">
@@ -6725,22 +2744,22 @@
         </is>
       </c>
       <c r="D15">
-        <v>119611.44679923</v>
+        <v>1829358.77820055</v>
       </c>
       <c r="E15">
-        <v>7994.186410787735</v>
+        <v>136779.5057318005</v>
       </c>
       <c r="F15">
-        <v>103847.2585905087</v>
+        <v>1559635.536753206</v>
       </c>
       <c r="G15">
-        <v>135375.6350079513</v>
+        <v>2099082.019647894</v>
       </c>
       <c r="H15">
-        <v>63907016.37042328</v>
+        <v>18708633188.23564</v>
       </c>
       <c r="I15">
-        <v>0.06683462682468946</v>
+        <v>0.07476909798215949</v>
       </c>
     </row>
     <row r="16">
@@ -6758,22 +2777,22 @@
         </is>
       </c>
       <c r="D16">
-        <v>8551.085801929999</v>
+        <v>152753.19563192</v>
       </c>
       <c r="E16">
-        <v>2471.681388489421</v>
+        <v>44824.7788076031</v>
       </c>
       <c r="F16">
-        <v>3677.037512593029</v>
+        <v>64360.67971762984</v>
       </c>
       <c r="G16">
-        <v>13425.13409126697</v>
+        <v>241145.7115462102</v>
       </c>
       <c r="H16">
-        <v>6109208.886204991</v>
+        <v>2009260795.150544</v>
       </c>
       <c r="I16">
-        <v>0.2890488349364425</v>
+        <v>0.2934457680061543</v>
       </c>
     </row>
     <row r="17">
@@ -6791,22 +2810,22 @@
         </is>
       </c>
       <c r="D17">
-        <v>13982.36604043</v>
+        <v>230097.23771811</v>
       </c>
       <c r="E17">
-        <v>3060.157597507408</v>
+        <v>53414.56266759612</v>
       </c>
       <c r="F17">
-        <v>7947.868239583547</v>
+        <v>124766.0413073985</v>
       </c>
       <c r="G17">
-        <v>20016.86384127645</v>
+        <v>335428.4341288215</v>
       </c>
       <c r="H17">
-        <v>9364564.521582313</v>
+        <v>2853115504.970554</v>
       </c>
       <c r="I17">
-        <v>0.2188583526320914</v>
+        <v>0.2321390869239109</v>
       </c>
     </row>
     <row r="18">
@@ -6824,22 +2843,22 @@
         </is>
       </c>
       <c r="D18">
-        <v>12424.73470425</v>
+        <v>278369.28539355</v>
       </c>
       <c r="E18">
-        <v>3566.423093235744</v>
+        <v>94414.59384304049</v>
       </c>
       <c r="F18">
-        <v>5391.9033459732</v>
+        <v>92187.80919189512</v>
       </c>
       <c r="G18">
-        <v>19457.5660625268</v>
+        <v>464550.7615952049</v>
       </c>
       <c r="H18">
-        <v>12719373.67996521</v>
+        <v>8914115530.546299</v>
       </c>
       <c r="I18">
-        <v>0.2870421927009688</v>
+        <v>0.3391702993006575</v>
       </c>
     </row>
     <row r="19">
@@ -6857,22 +2876,22 @@
         </is>
       </c>
       <c r="D19">
-        <v>7468.70421768</v>
+        <v>128901.26941986</v>
       </c>
       <c r="E19">
-        <v>1712.694402257974</v>
+        <v>31942.1558511283</v>
       </c>
       <c r="F19">
-        <v>4091.345282844045</v>
+        <v>65912.72615171816</v>
       </c>
       <c r="G19">
-        <v>10846.06315251596</v>
+        <v>191889.8126880018</v>
       </c>
       <c r="H19">
-        <v>2933322.115525799</v>
+        <v>1020301320.41777</v>
       </c>
       <c r="I19">
-        <v>0.229316137356687</v>
+        <v>0.247803268306735</v>
       </c>
     </row>
     <row r="20">
@@ -6890,22 +2909,22 @@
         </is>
       </c>
       <c r="D20">
-        <v>110570.50300136</v>
+        <v>2333933.52745493</v>
       </c>
       <c r="E20">
-        <v>8077.881701940803</v>
+        <v>218270.3262974494</v>
       </c>
       <c r="F20">
-        <v>94641.27131552636</v>
+        <v>1903513.929096709</v>
       </c>
       <c r="G20">
-        <v>126499.7346871936</v>
+        <v>2764353.12581315</v>
       </c>
       <c r="H20">
-        <v>65252172.79055005</v>
+        <v>47641935341.99501</v>
       </c>
       <c r="I20">
-        <v>0.07305638920573099</v>
+        <v>0.09352036968056467</v>
       </c>
     </row>
     <row r="21">
@@ -6923,22 +2942,22 @@
         </is>
       </c>
       <c r="D21">
-        <v>88068.04067161</v>
+        <v>1873096.86098527</v>
       </c>
       <c r="E21">
-        <v>7215.637174905351</v>
+        <v>169589.4302564706</v>
       </c>
       <c r="F21">
-        <v>73839.11772360918</v>
+        <v>1538673.874155097</v>
       </c>
       <c r="G21">
-        <v>102296.9636196108</v>
+        <v>2207519.847815443</v>
       </c>
       <c r="H21">
-        <v>52065419.83987607</v>
+        <v>28760574854.7143</v>
       </c>
       <c r="I21">
-        <v>0.08193252762158265</v>
+        <v>0.09053959450194403</v>
       </c>
     </row>
     <row r="22">
@@ -6956,22 +2975,22 @@
         </is>
       </c>
       <c r="D22">
-        <v>115973.02421824</v>
+        <v>2340251.33034369</v>
       </c>
       <c r="E22">
-        <v>9071.781306780134</v>
+        <v>246769.3114294727</v>
       </c>
       <c r="F22">
-        <v>98083.8657023142</v>
+        <v>1853632.971749842</v>
       </c>
       <c r="G22">
-        <v>133862.1827341658</v>
+        <v>2826869.688937537</v>
       </c>
       <c r="H22">
-        <v>82297216.07804549</v>
+        <v>60895093063.37608</v>
       </c>
       <c r="I22">
-        <v>0.07822320205868481</v>
+        <v>0.1054456451877039</v>
       </c>
     </row>
     <row r="23">
@@ -6989,22 +3008,22 @@
         </is>
       </c>
       <c r="D23">
-        <v>101034.92499305</v>
+        <v>1966587.6487716</v>
       </c>
       <c r="E23">
-        <v>7285.7739970418</v>
+        <v>148684.5295858244</v>
       </c>
       <c r="F23">
-        <v>86667.69527964418</v>
+        <v>1673388.217625841</v>
       </c>
       <c r="G23">
-        <v>115402.1547064558</v>
+        <v>2259787.07991736</v>
       </c>
       <c r="H23">
-        <v>53082502.73597044</v>
+        <v>22107089338.15789</v>
       </c>
       <c r="I23">
-        <v>0.07211144064830033</v>
+        <v>0.0756053408952802</v>
       </c>
     </row>
     <row r="24">
@@ -7022,22 +3041,22 @@
         </is>
       </c>
       <c r="D24">
-        <v>298031.78260046</v>
+        <v>4810245.42021042</v>
       </c>
       <c r="E24">
-        <v>12962.31119750449</v>
+        <v>243629.3312643291</v>
       </c>
       <c r="F24">
-        <v>272470.6682059132</v>
+        <v>4329818.966052049</v>
       </c>
       <c r="G24">
-        <v>323592.8969950068</v>
+        <v>5290671.874368791</v>
       </c>
       <c r="H24">
-        <v>168021511.5809504</v>
+        <v>59355251052.30421</v>
       </c>
       <c r="I24">
-        <v>0.04349304991703421</v>
+        <v>0.0506480044117316</v>
       </c>
     </row>
     <row r="25">
@@ -7055,22 +3074,22 @@
         </is>
       </c>
       <c r="D25">
-        <v>327192.9201724</v>
+        <v>5437394.72514699</v>
       </c>
       <c r="E25">
-        <v>14512.80694680416</v>
+        <v>321711.2509937696</v>
       </c>
       <c r="F25">
-        <v>298574.2955381873</v>
+        <v>4802994.118390408</v>
       </c>
       <c r="G25">
-        <v>355811.5448066128</v>
+        <v>6071795.331903572</v>
       </c>
       <c r="H25">
-        <v>210621565.4752072</v>
+        <v>103498129015.9762</v>
       </c>
       <c r="I25">
-        <v>0.04435550420576727</v>
+        <v>0.05916643305403447</v>
       </c>
     </row>
     <row r="26">
@@ -7088,22 +3107,22 @@
         </is>
       </c>
       <c r="D26">
-        <v>324505.052247</v>
+        <v>5545916.50318611</v>
       </c>
       <c r="E26">
-        <v>13519.67548574343</v>
+        <v>283939.0656433937</v>
       </c>
       <c r="F26">
-        <v>297844.8396967283</v>
+        <v>4986001.004521892</v>
       </c>
       <c r="G26">
-        <v>351165.2647972717</v>
+        <v>6105832.001850328</v>
       </c>
       <c r="H26">
-        <v>182781625.2398118</v>
+        <v>80621392998.44342</v>
       </c>
       <c r="I26">
-        <v>0.041662449912961</v>
+        <v>0.05119786161228205</v>
       </c>
     </row>
     <row r="27">
@@ -7121,22 +3140,22 @@
         </is>
       </c>
       <c r="D27">
-        <v>318906.50573178</v>
+        <v>5326674.58336863</v>
       </c>
       <c r="E27">
-        <v>13428.20312436043</v>
+        <v>266235.7013934886</v>
       </c>
       <c r="F27">
-        <v>292426.6727031557</v>
+        <v>4801669.349692285</v>
       </c>
       <c r="G27">
-        <v>345386.3387604044</v>
+        <v>5851679.817044975</v>
       </c>
       <c r="H27">
-        <v>180316639.1490831</v>
+        <v>70881448696.48283</v>
       </c>
       <c r="I27">
-        <v>0.0421070215972777</v>
+        <v>0.04998159681553498</v>
       </c>
     </row>
     <row r="28">
@@ -7154,22 +3173,22 @@
         </is>
       </c>
       <c r="D28">
-        <v>80002.59504535</v>
+        <v>1530291.58474561</v>
       </c>
       <c r="E28">
-        <v>7118.295224777877</v>
+        <v>167965.5316849565</v>
       </c>
       <c r="F28">
-        <v>65965.62619293327</v>
+        <v>1199070.855330735</v>
       </c>
       <c r="G28">
-        <v>94039.56389776673</v>
+        <v>1861512.314160485</v>
       </c>
       <c r="H28">
-        <v>50670126.90709552</v>
+        <v>28212419834.21013</v>
       </c>
       <c r="I28">
-        <v>0.08897580410663959</v>
+        <v>0.1097604752971823</v>
       </c>
     </row>
     <row r="29">
@@ -7187,22 +3206,22 @@
         </is>
       </c>
       <c r="D29">
-        <v>89073.59491729</v>
+        <v>1669481.5402696</v>
       </c>
       <c r="E29">
-        <v>7854.166613715705</v>
+        <v>170037.1410181467</v>
       </c>
       <c r="F29">
-        <v>73585.51966372969</v>
+        <v>1334175.687273008</v>
       </c>
       <c r="G29">
-        <v>104561.6701708503</v>
+        <v>2004787.393266192</v>
       </c>
       <c r="H29">
-        <v>61687933.19600643</v>
+        <v>28912629325.6251</v>
       </c>
       <c r="I29">
-        <v>0.08817614940778751</v>
+        <v>0.1018502672336753</v>
       </c>
     </row>
     <row r="30">
@@ -7220,22 +3239,22 @@
         </is>
       </c>
       <c r="D30">
-        <v>91314.59307813</v>
+        <v>1793715.0517605</v>
       </c>
       <c r="E30">
-        <v>8044.354456891951</v>
+        <v>180166.4120710785</v>
       </c>
       <c r="F30">
-        <v>75451.47566258117</v>
+        <v>1438434.716422579</v>
       </c>
       <c r="G30">
-        <v>107177.7104936788</v>
+        <v>2148995.387098421</v>
       </c>
       <c r="H30">
-        <v>64711638.62811739</v>
+        <v>32459936038.56565</v>
       </c>
       <c r="I30">
-        <v>0.08809494940210807</v>
+        <v>0.1004431623039837</v>
       </c>
     </row>
     <row r="31">
@@ -7253,22 +3272,22 @@
         </is>
       </c>
       <c r="D31">
-        <v>66495.23038867</v>
+        <v>1177012.29601878</v>
       </c>
       <c r="E31">
-        <v>7133.835972241794</v>
+        <v>124819.983453041</v>
       </c>
       <c r="F31">
-        <v>52427.61585758923</v>
+        <v>930872.7127951605</v>
       </c>
       <c r="G31">
-        <v>80562.84491975076</v>
+        <v>1423151.879242399</v>
       </c>
       <c r="H31">
-        <v>50891615.67885103</v>
+        <v>15580028269.21742</v>
       </c>
       <c r="I31">
-        <v>0.1072834236462367</v>
+        <v>0.1060481558903352</v>
       </c>
     </row>
     <row r="32">
@@ -7286,22 +3305,22 @@
         </is>
       </c>
       <c r="D32">
-        <v>29086.61579131</v>
+        <v>483370.09674732</v>
       </c>
       <c r="E32">
-        <v>4889.720741579011</v>
+        <v>95924.92088161969</v>
       </c>
       <c r="F32">
-        <v>19444.29897538974</v>
+        <v>294210.3212579786</v>
       </c>
       <c r="G32">
-        <v>38728.93260723026</v>
+        <v>672529.8722366615</v>
       </c>
       <c r="H32">
-        <v>23909368.93062799</v>
+        <v>9201590446.144997</v>
       </c>
       <c r="I32">
-        <v>0.1681089603775726</v>
+        <v>0.1984502589777789</v>
       </c>
     </row>
     <row r="33">
@@ -7319,22 +3338,22 @@
         </is>
       </c>
       <c r="D33">
-        <v>42697.51365986</v>
+        <v>665381.21611104</v>
       </c>
       <c r="E33">
-        <v>5376.154506832726</v>
+        <v>106012.019503635</v>
       </c>
       <c r="F33">
-        <v>32095.97059720266</v>
+        <v>456330.1204815025</v>
       </c>
       <c r="G33">
-        <v>53299.05672251734</v>
+        <v>874432.3117405775</v>
       </c>
       <c r="H33">
-        <v>28903037.28133783</v>
+        <v>11238548279.2391</v>
       </c>
       <c r="I33">
-        <v>0.1259125894229026</v>
+        <v>0.1593252363257931</v>
       </c>
     </row>
     <row r="34">
@@ -7352,22 +3371,22 @@
         </is>
       </c>
       <c r="D34">
-        <v>30174.02113318</v>
+        <v>497611.72115249</v>
       </c>
       <c r="E34">
-        <v>5171.762847930577</v>
+        <v>94333.59375411883</v>
       </c>
       <c r="F34">
-        <v>19975.52953988522</v>
+        <v>311589.9736062692</v>
       </c>
       <c r="G34">
-        <v>40372.51272647478</v>
+        <v>683633.4686987108</v>
       </c>
       <c r="H34">
-        <v>26747130.95523499</v>
+        <v>8898826910.567127</v>
       </c>
       <c r="I34">
-        <v>0.1713978665655402</v>
+        <v>0.1895726924109388</v>
       </c>
     </row>
     <row r="35">
@@ -7385,22 +3404,22 @@
         </is>
       </c>
       <c r="D35">
-        <v>30379.22834747</v>
+        <v>586967.87112942</v>
       </c>
       <c r="E35">
-        <v>4886.35327314473</v>
+        <v>126731.8966568013</v>
       </c>
       <c r="F35">
-        <v>20743.55203296628</v>
+        <v>337058.0781516039</v>
       </c>
       <c r="G35">
-        <v>40014.90466197372</v>
+        <v>836877.6641072361</v>
       </c>
       <c r="H35">
-        <v>23876448.30997222</v>
+        <v>16060973630.23018</v>
       </c>
       <c r="I35">
-        <v>0.1608452070360658</v>
+        <v>0.2159094268872825</v>
       </c>
     </row>
     <row r="36">
@@ -7418,22 +3437,22 @@
         </is>
       </c>
       <c r="D36">
-        <v>16397.19159646</v>
+        <v>307585.46291781</v>
       </c>
       <c r="E36">
-        <v>3891.684122789089</v>
+        <v>84402.14003993977</v>
       </c>
       <c r="F36">
-        <v>8722.959622365419</v>
+        <v>141148.110517198</v>
       </c>
       <c r="G36">
-        <v>24071.42357055458</v>
+        <v>474022.815318422</v>
       </c>
       <c r="H36">
-        <v>15145205.31156868</v>
+        <v>7123721243.321604</v>
       </c>
       <c r="I36">
-        <v>0.2373384551796825</v>
+        <v>0.2744022400775581</v>
       </c>
     </row>
     <row r="37">
@@ -7451,22 +3470,22 @@
         </is>
       </c>
       <c r="D37">
-        <v>15859.49432475</v>
+        <v>262347.7242023</v>
       </c>
       <c r="E37">
-        <v>3381.066895078872</v>
+        <v>54641.66968750457</v>
       </c>
       <c r="F37">
-        <v>9192.177334446267</v>
+        <v>154596.7260731828</v>
       </c>
       <c r="G37">
-        <v>22526.81131505373</v>
+        <v>370098.7223314173</v>
       </c>
       <c r="H37">
-        <v>11431613.34899828</v>
+        <v>2985712066.238356</v>
       </c>
       <c r="I37">
-        <v>0.2131888208946516</v>
+        <v>0.2082795642830491</v>
       </c>
     </row>
     <row r="38">
@@ -7484,22 +3503,22 @@
         </is>
       </c>
       <c r="D38">
-        <v>13855.46566932</v>
+        <v>239978.60120224</v>
       </c>
       <c r="E38">
-        <v>2963.275723821503</v>
+        <v>63070.35660067647</v>
       </c>
       <c r="F38">
-        <v>8012.014713307839</v>
+        <v>115606.5987552444</v>
       </c>
       <c r="G38">
-        <v>19698.91662533216</v>
+        <v>364350.6036492357</v>
       </c>
       <c r="H38">
-        <v>8781003.015389852</v>
+        <v>3977869881.736494</v>
       </c>
       <c r="I38">
-        <v>0.2138705255055448</v>
+        <v>0.2628165856651712</v>
       </c>
     </row>
     <row r="39">
@@ -7517,22 +3536,22 @@
         </is>
       </c>
       <c r="D39">
-        <v>12186.87278522</v>
+        <v>201692.3780628</v>
       </c>
       <c r="E39">
-        <v>2593.650280555893</v>
+        <v>45018.68848817154</v>
       </c>
       <c r="F39">
-        <v>7072.307140977417</v>
+        <v>112917.4806849191</v>
       </c>
       <c r="G39">
-        <v>17301.43842946259</v>
+        <v>290467.2754406809</v>
       </c>
       <c r="H39">
-        <v>6727021.777827661</v>
+        <v>2026682313.195029</v>
       </c>
       <c r="I39">
-        <v>0.2128232834022376</v>
+        <v>0.2232047086784523</v>
       </c>
     </row>
     <row r="40">
@@ -7550,22 +3569,22 @@
         </is>
       </c>
       <c r="D40">
-        <v>10893.14879942</v>
+        <v>236054.48319294</v>
       </c>
       <c r="E40">
-        <v>2493.970259298502</v>
+        <v>59945.11059258055</v>
       </c>
       <c r="F40">
-        <v>5975.147825427081</v>
+        <v>117845.3300640058</v>
       </c>
       <c r="G40">
-        <v>15811.14977341292</v>
+        <v>354263.6363218742</v>
       </c>
       <c r="H40">
-        <v>6219887.654265436</v>
+        <v>3593416283.956713</v>
       </c>
       <c r="I40">
-        <v>0.2289485166521632</v>
+        <v>0.2539460796581618</v>
       </c>
     </row>
     <row r="41">
@@ -7583,22 +3602,22 @@
         </is>
       </c>
       <c r="D41">
-        <v>21327.32341735</v>
+        <v>439512.62401896</v>
       </c>
       <c r="E41">
-        <v>4128.617621677676</v>
+        <v>90354.93104619732</v>
       </c>
       <c r="F41">
-        <v>13185.8688795696</v>
+        <v>261336.6264369954</v>
       </c>
       <c r="G41">
-        <v>29468.77795513039</v>
+        <v>617688.6216009245</v>
       </c>
       <c r="H41">
-        <v>17045483.46602743</v>
+        <v>8164013564.363072</v>
       </c>
       <c r="I41">
-        <v>0.1935834863515505</v>
+        <v>0.2055798311774988</v>
       </c>
     </row>
     <row r="42">
@@ -7616,22 +3635,22 @@
         </is>
       </c>
       <c r="D42">
-        <v>18043.43343228</v>
+        <v>283640.08792713</v>
       </c>
       <c r="E42">
-        <v>3793.954090165182</v>
+        <v>63377.32362181924</v>
       </c>
       <c r="F42">
-        <v>10561.92083558807</v>
+        <v>158662.7598539224</v>
       </c>
       <c r="G42">
-        <v>25524.94602897193</v>
+        <v>408617.4160003376</v>
       </c>
       <c r="H42">
-        <v>14394087.63828111</v>
+        <v>4016685149.464807</v>
       </c>
       <c r="I42">
-        <v>0.2102678575230441</v>
+        <v>0.2234427583385234</v>
       </c>
     </row>
     <row r="43">
@@ -7649,22 +3668,22 @@
         </is>
       </c>
       <c r="D43">
-        <v>10443.14060542</v>
+        <v>224452.65117611</v>
       </c>
       <c r="E43">
-        <v>2944.214809592615</v>
+        <v>97436.61167403216</v>
       </c>
       <c r="F43">
-        <v>4637.276943960916</v>
+        <v>32311.88713578563</v>
       </c>
       <c r="G43">
-        <v>16249.00426687908</v>
+        <v>416593.4152164344</v>
       </c>
       <c r="H43">
-        <v>8668400.845024481</v>
+        <v>9493893294.51614</v>
       </c>
       <c r="I43">
-        <v>0.2819281019796445</v>
+        <v>0.434107644367192</v>
       </c>
     </row>
     <row r="44">
@@ -7682,22 +3701,22 @@
         </is>
       </c>
       <c r="D44">
-        <v>1037693.45506498</v>
+        <v>17274709.11248529</v>
       </c>
       <c r="E44">
-        <v>30402.39224807765</v>
+        <v>562627.1087071265</v>
       </c>
       <c r="F44">
-        <v>977741.2587104745</v>
+        <v>16165232.90349683</v>
       </c>
       <c r="G44">
-        <v>1097645.651419485</v>
+        <v>18384185.32147375</v>
       </c>
       <c r="H44">
-        <v>924305454.4059719</v>
+        <v>316549263452.1407</v>
       </c>
       <c r="I44">
-        <v>0.0292980476071075</v>
+        <v>0.03256941144673099</v>
       </c>
     </row>
     <row r="45">
@@ -7715,22 +3734,22 @@
         </is>
       </c>
       <c r="D45">
-        <v>1111370.84694758</v>
+        <v>18391292.81777781</v>
       </c>
       <c r="E45">
-        <v>32539.9602378394</v>
+        <v>617214.0058102028</v>
       </c>
       <c r="F45">
-        <v>1047203.459406881</v>
+        <v>17174173.61981654</v>
       </c>
       <c r="G45">
-        <v>1175538.234488279</v>
+        <v>19608412.01573908</v>
       </c>
       <c r="H45">
-        <v>1058849012.280169</v>
+        <v>380953128968.277</v>
       </c>
       <c r="I45">
-        <v>0.02927911986103609</v>
+        <v>0.03356012064652559</v>
       </c>
     </row>
     <row r="46">
@@ -7748,22 +3767,22 @@
         </is>
       </c>
       <c r="D46">
-        <v>1104883.05501111</v>
+        <v>18607963.62306068</v>
       </c>
       <c r="E46">
-        <v>33898.01196826452</v>
+        <v>617488.6341864192</v>
       </c>
       <c r="F46">
-        <v>1038037.648473167</v>
+        <v>17390302.8698757</v>
       </c>
       <c r="G46">
-        <v>1171728.461549053</v>
+        <v>19825624.37624567</v>
       </c>
       <c r="H46">
-        <v>1149075215.400604</v>
+        <v>381292213349.4094</v>
       </c>
       <c r="I46">
-        <v>0.03068018087029461</v>
+        <v>0.03318410583204124</v>
       </c>
     </row>
     <row r="47">
@@ -7781,22 +3800,22 @@
         </is>
       </c>
       <c r="D47">
-        <v>1105732.00373772</v>
+        <v>19058479.30961097</v>
       </c>
       <c r="E47">
-        <v>34088.29528236828</v>
+        <v>643636.4830498566</v>
       </c>
       <c r="F47">
-        <v>1038511.366773268</v>
+        <v>17789256.13474162</v>
       </c>
       <c r="G47">
-        <v>1172952.640702172</v>
+        <v>20327702.48448032</v>
       </c>
       <c r="H47">
-        <v>1162011875.257931</v>
+        <v>414267922312.7884</v>
       </c>
       <c r="I47">
-        <v>0.03082871361879658</v>
+        <v>0.03377165998366292</v>
       </c>
     </row>
     <row r="48">
@@ -7814,22 +3833,22 @@
         </is>
       </c>
       <c r="D48">
-        <v>561741.61848301</v>
+        <v>11737997.14937184</v>
       </c>
       <c r="E48">
-        <v>18638.5920936995</v>
+        <v>410180.4014361774</v>
       </c>
       <c r="F48">
-        <v>524987.1248282003</v>
+        <v>10929139.22243596</v>
       </c>
       <c r="G48">
-        <v>598496.1121378196</v>
+        <v>12546855.07630772</v>
       </c>
       <c r="H48">
-        <v>347397115.2353176</v>
+        <v>168247961722.3437</v>
       </c>
       <c r="I48">
-        <v>0.03318000924345475</v>
+        <v>0.03494466698333866</v>
       </c>
     </row>
     <row r="49">
@@ -7847,22 +3866,22 @@
         </is>
       </c>
       <c r="D49">
-        <v>596241.94337647</v>
+        <v>12266647.55615803</v>
       </c>
       <c r="E49">
-        <v>19072.13096053595</v>
+        <v>432508.2844700633</v>
       </c>
       <c r="F49">
-        <v>558632.5299160148</v>
+        <v>11413760.01415419</v>
       </c>
       <c r="G49">
-        <v>633851.3568369253</v>
+        <v>13119535.09816187</v>
       </c>
       <c r="H49">
-        <v>363746179.3758337</v>
+        <v>187063416135.2372</v>
       </c>
       <c r="I49">
-        <v>0.03198723466606862</v>
+        <v>0.03525888246890554</v>
       </c>
     </row>
     <row r="50">
@@ -7880,22 +3899,22 @@
         </is>
       </c>
       <c r="D50">
-        <v>588276.06269337</v>
+        <v>11994971.24972625</v>
       </c>
       <c r="E50">
-        <v>21170.12250984969</v>
+        <v>442119.7789450548</v>
       </c>
       <c r="F50">
-        <v>546529.5010674606</v>
+        <v>11123130.25829241</v>
       </c>
       <c r="G50">
-        <v>630022.6243192794</v>
+        <v>12866812.24116009</v>
       </c>
       <c r="H50">
-        <v>448174087.0820447</v>
+        <v>195469898934.4241</v>
       </c>
       <c r="I50">
-        <v>0.03598671415070699</v>
+        <v>0.03685876103747601</v>
       </c>
     </row>
     <row r="51">
@@ -7913,22 +3932,22 @@
         </is>
       </c>
       <c r="D51">
-        <v>594341.72874434</v>
+        <v>12225667.31127123</v>
       </c>
       <c r="E51">
-        <v>19337.02139322264</v>
+        <v>417046.3489401756</v>
       </c>
       <c r="F51">
-        <v>556209.9628616385</v>
+        <v>11403270.03422235</v>
       </c>
       <c r="G51">
-        <v>632473.4946270415</v>
+        <v>13048064.58832011</v>
       </c>
       <c r="H51">
-        <v>373920396.36195</v>
+        <v>173927657164.3307</v>
       </c>
       <c r="I51">
-        <v>0.03253519054446299</v>
+        <v>0.03411235872218504</v>
       </c>
     </row>
   </sheetData>
@@ -7936,1717 +3955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cod_SCN_SEC</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trimestre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_se</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_low</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_upp</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_var</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Qtd_horasHabituais_cv</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>6255.61107984</v>
-      </c>
-      <c r="E2">
-        <v>6447.599178235268</v>
-      </c>
-      <c r="F2">
-        <v>-6458.774314393255</v>
-      </c>
-      <c r="G2">
-        <v>18969.99647407325</v>
-      </c>
-      <c r="H2">
-        <v>41571535.16318011</v>
-      </c>
-      <c r="I2">
-        <v>1.030690542609656</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>25999.96126525</v>
-      </c>
-      <c r="E3">
-        <v>15906.9738238711</v>
-      </c>
-      <c r="F3">
-        <v>-5367.899865973934</v>
-      </c>
-      <c r="G3">
-        <v>57367.82239647393</v>
-      </c>
-      <c r="H3">
-        <v>253031816.2333204</v>
-      </c>
-      <c r="I3">
-        <v>0.6118075970032854</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>7026995.06280275</v>
-      </c>
-      <c r="E4">
-        <v>275108.7804971575</v>
-      </c>
-      <c r="F4">
-        <v>6484492.502720261</v>
-      </c>
-      <c r="G4">
-        <v>7569497.622885238</v>
-      </c>
-      <c r="H4">
-        <v>75684841106.63318</v>
-      </c>
-      <c r="I4">
-        <v>0.03915027377113726</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>6166513.56325078</v>
-      </c>
-      <c r="E5">
-        <v>291163.3624749578</v>
-      </c>
-      <c r="F5">
-        <v>5592352.065171942</v>
-      </c>
-      <c r="G5">
-        <v>6740675.061329618</v>
-      </c>
-      <c r="H5">
-        <v>84776103647.72365</v>
-      </c>
-      <c r="I5">
-        <v>0.04721685268157687</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>6428772.48992654</v>
-      </c>
-      <c r="E6">
-        <v>273497.1678953706</v>
-      </c>
-      <c r="F6">
-        <v>5889447.959860944</v>
-      </c>
-      <c r="G6">
-        <v>6968097.019992136</v>
-      </c>
-      <c r="H6">
-        <v>74800700846.78854</v>
-      </c>
-      <c r="I6">
-        <v>0.04254267332121685</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>6773658.02406899</v>
-      </c>
-      <c r="E7">
-        <v>276766.16484919</v>
-      </c>
-      <c r="F7">
-        <v>6227887.17406717</v>
-      </c>
-      <c r="G7">
-        <v>7319428.874070809</v>
-      </c>
-      <c r="H7">
-        <v>76599510005.32904</v>
-      </c>
-      <c r="I7">
-        <v>0.04085918773368107</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>38867.24509506</v>
-      </c>
-      <c r="E8">
-        <v>15762.60392251398</v>
-      </c>
-      <c r="F8">
-        <v>7784.075135610223</v>
-      </c>
-      <c r="G8">
-        <v>69950.41505450977</v>
-      </c>
-      <c r="H8">
-        <v>248459682.418053</v>
-      </c>
-      <c r="I8">
-        <v>0.4055498115177038</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>43106.56197336</v>
-      </c>
-      <c r="E9">
-        <v>19096.35332093228</v>
-      </c>
-      <c r="F9">
-        <v>5449.383070803917</v>
-      </c>
-      <c r="G9">
-        <v>80763.74087591608</v>
-      </c>
-      <c r="H9">
-        <v>364670710.1578813</v>
-      </c>
-      <c r="I9">
-        <v>0.4430033954629434</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>12016.0173606</v>
-      </c>
-      <c r="E10">
-        <v>6886.722672966481</v>
-      </c>
-      <c r="F10">
-        <v>-1564.300482803168</v>
-      </c>
-      <c r="G10">
-        <v>25596.33520400317</v>
-      </c>
-      <c r="H10">
-        <v>47426949.17435059</v>
-      </c>
-      <c r="I10">
-        <v>0.5731285555185486</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>15004.83542754</v>
-      </c>
-      <c r="E11">
-        <v>9266.990008922165</v>
-      </c>
-      <c r="F11">
-        <v>-3269.266166069663</v>
-      </c>
-      <c r="G11">
-        <v>33278.93702114966</v>
-      </c>
-      <c r="H11">
-        <v>85877103.82546322</v>
-      </c>
-      <c r="I11">
-        <v>0.6176002431798389</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>1873089.71762348</v>
-      </c>
-      <c r="E12">
-        <v>165098.3809774929</v>
-      </c>
-      <c r="F12">
-        <v>1547522.884809544</v>
-      </c>
-      <c r="G12">
-        <v>2198656.550437416</v>
-      </c>
-      <c r="H12">
-        <v>27257475401.38939</v>
-      </c>
-      <c r="I12">
-        <v>0.08814227072206919</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>1932989.52651504</v>
-      </c>
-      <c r="E13">
-        <v>151565.9363601228</v>
-      </c>
-      <c r="F13">
-        <v>1634108.086424051</v>
-      </c>
-      <c r="G13">
-        <v>2231870.966606029</v>
-      </c>
-      <c r="H13">
-        <v>22972233064.72081</v>
-      </c>
-      <c r="I13">
-        <v>0.07841011773787464</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>1936241.06834388</v>
-      </c>
-      <c r="E14">
-        <v>161869.0000630885</v>
-      </c>
-      <c r="F14">
-        <v>1617042.434357985</v>
-      </c>
-      <c r="G14">
-        <v>2255439.702329775</v>
-      </c>
-      <c r="H14">
-        <v>26201573181.42414</v>
-      </c>
-      <c r="I14">
-        <v>0.08359961097279042</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>1829358.77820055</v>
-      </c>
-      <c r="E15">
-        <v>136779.5057318005</v>
-      </c>
-      <c r="F15">
-        <v>1559635.536753206</v>
-      </c>
-      <c r="G15">
-        <v>2099082.019647894</v>
-      </c>
-      <c r="H15">
-        <v>18708633188.23564</v>
-      </c>
-      <c r="I15">
-        <v>0.07476909798215949</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>152753.19563192</v>
-      </c>
-      <c r="E16">
-        <v>44824.7788076031</v>
-      </c>
-      <c r="F16">
-        <v>64360.67971762984</v>
-      </c>
-      <c r="G16">
-        <v>241145.7115462102</v>
-      </c>
-      <c r="H16">
-        <v>2009260795.150544</v>
-      </c>
-      <c r="I16">
-        <v>0.2934457680061543</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>230097.23771811</v>
-      </c>
-      <c r="E17">
-        <v>53414.56266759612</v>
-      </c>
-      <c r="F17">
-        <v>124766.0413073985</v>
-      </c>
-      <c r="G17">
-        <v>335428.4341288215</v>
-      </c>
-      <c r="H17">
-        <v>2853115504.970554</v>
-      </c>
-      <c r="I17">
-        <v>0.2321390869239109</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>278369.28539355</v>
-      </c>
-      <c r="E18">
-        <v>94414.59384304049</v>
-      </c>
-      <c r="F18">
-        <v>92187.80919189512</v>
-      </c>
-      <c r="G18">
-        <v>464550.7615952049</v>
-      </c>
-      <c r="H18">
-        <v>8914115530.546299</v>
-      </c>
-      <c r="I18">
-        <v>0.3391702993006575</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>128901.26941986</v>
-      </c>
-      <c r="E19">
-        <v>31942.1558511283</v>
-      </c>
-      <c r="F19">
-        <v>65912.72615171816</v>
-      </c>
-      <c r="G19">
-        <v>191889.8126880018</v>
-      </c>
-      <c r="H19">
-        <v>1020301320.41777</v>
-      </c>
-      <c r="I19">
-        <v>0.247803268306735</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>2333933.52745493</v>
-      </c>
-      <c r="E20">
-        <v>218270.3262974494</v>
-      </c>
-      <c r="F20">
-        <v>1903513.929096709</v>
-      </c>
-      <c r="G20">
-        <v>2764353.12581315</v>
-      </c>
-      <c r="H20">
-        <v>47641935341.99501</v>
-      </c>
-      <c r="I20">
-        <v>0.09352036968056467</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>5</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>1873096.86098527</v>
-      </c>
-      <c r="E21">
-        <v>169589.4302564706</v>
-      </c>
-      <c r="F21">
-        <v>1538673.874155097</v>
-      </c>
-      <c r="G21">
-        <v>2207519.847815443</v>
-      </c>
-      <c r="H21">
-        <v>28760574854.7143</v>
-      </c>
-      <c r="I21">
-        <v>0.09053959450194403</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>2340251.33034369</v>
-      </c>
-      <c r="E22">
-        <v>246769.3114294727</v>
-      </c>
-      <c r="F22">
-        <v>1853632.971749842</v>
-      </c>
-      <c r="G22">
-        <v>2826869.688937537</v>
-      </c>
-      <c r="H22">
-        <v>60895093063.37608</v>
-      </c>
-      <c r="I22">
-        <v>0.1054456451877039</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>1966587.6487716</v>
-      </c>
-      <c r="E23">
-        <v>148684.5295858244</v>
-      </c>
-      <c r="F23">
-        <v>1673388.217625841</v>
-      </c>
-      <c r="G23">
-        <v>2259787.07991736</v>
-      </c>
-      <c r="H23">
-        <v>22107089338.15789</v>
-      </c>
-      <c r="I23">
-        <v>0.0756053408952802</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>4810245.42021042</v>
-      </c>
-      <c r="E24">
-        <v>243629.3312643291</v>
-      </c>
-      <c r="F24">
-        <v>4329818.966052049</v>
-      </c>
-      <c r="G24">
-        <v>5290671.874368791</v>
-      </c>
-      <c r="H24">
-        <v>59355251052.30421</v>
-      </c>
-      <c r="I24">
-        <v>0.0506480044117316</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>5437394.72514699</v>
-      </c>
-      <c r="E25">
-        <v>321711.2509937696</v>
-      </c>
-      <c r="F25">
-        <v>4802994.118390408</v>
-      </c>
-      <c r="G25">
-        <v>6071795.331903572</v>
-      </c>
-      <c r="H25">
-        <v>103498129015.9762</v>
-      </c>
-      <c r="I25">
-        <v>0.05916643305403447</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>5545916.50318611</v>
-      </c>
-      <c r="E26">
-        <v>283939.0656433937</v>
-      </c>
-      <c r="F26">
-        <v>4986001.004521892</v>
-      </c>
-      <c r="G26">
-        <v>6105832.001850328</v>
-      </c>
-      <c r="H26">
-        <v>80621392998.44342</v>
-      </c>
-      <c r="I26">
-        <v>0.05119786161228205</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>5326674.58336863</v>
-      </c>
-      <c r="E27">
-        <v>266235.7013934886</v>
-      </c>
-      <c r="F27">
-        <v>4801669.349692285</v>
-      </c>
-      <c r="G27">
-        <v>5851679.817044975</v>
-      </c>
-      <c r="H27">
-        <v>70881448696.48283</v>
-      </c>
-      <c r="I27">
-        <v>0.04998159681553498</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>1530291.58474561</v>
-      </c>
-      <c r="E28">
-        <v>167965.5316849565</v>
-      </c>
-      <c r="F28">
-        <v>1199070.855330735</v>
-      </c>
-      <c r="G28">
-        <v>1861512.314160485</v>
-      </c>
-      <c r="H28">
-        <v>28212419834.21013</v>
-      </c>
-      <c r="I28">
-        <v>0.1097604752971823</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>1669481.5402696</v>
-      </c>
-      <c r="E29">
-        <v>170037.1410181467</v>
-      </c>
-      <c r="F29">
-        <v>1334175.687273008</v>
-      </c>
-      <c r="G29">
-        <v>2004787.393266192</v>
-      </c>
-      <c r="H29">
-        <v>28912629325.6251</v>
-      </c>
-      <c r="I29">
-        <v>0.1018502672336753</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>1793715.0517605</v>
-      </c>
-      <c r="E30">
-        <v>180166.4120710785</v>
-      </c>
-      <c r="F30">
-        <v>1438434.716422579</v>
-      </c>
-      <c r="G30">
-        <v>2148995.387098421</v>
-      </c>
-      <c r="H30">
-        <v>32459936038.56565</v>
-      </c>
-      <c r="I30">
-        <v>0.1004431623039837</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>1177012.29601878</v>
-      </c>
-      <c r="E31">
-        <v>124819.983453041</v>
-      </c>
-      <c r="F31">
-        <v>930872.7127951605</v>
-      </c>
-      <c r="G31">
-        <v>1423151.879242399</v>
-      </c>
-      <c r="H31">
-        <v>15580028269.21742</v>
-      </c>
-      <c r="I31">
-        <v>0.1060481558903352</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>8</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>483370.09674732</v>
-      </c>
-      <c r="E32">
-        <v>95924.92088161969</v>
-      </c>
-      <c r="F32">
-        <v>294210.3212579786</v>
-      </c>
-      <c r="G32">
-        <v>672529.8722366615</v>
-      </c>
-      <c r="H32">
-        <v>9201590446.144997</v>
-      </c>
-      <c r="I32">
-        <v>0.1984502589777789</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>8</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>665381.21611104</v>
-      </c>
-      <c r="E33">
-        <v>106012.019503635</v>
-      </c>
-      <c r="F33">
-        <v>456330.1204815025</v>
-      </c>
-      <c r="G33">
-        <v>874432.3117405775</v>
-      </c>
-      <c r="H33">
-        <v>11238548279.2391</v>
-      </c>
-      <c r="I33">
-        <v>0.1593252363257931</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>497611.72115249</v>
-      </c>
-      <c r="E34">
-        <v>94333.59375411883</v>
-      </c>
-      <c r="F34">
-        <v>311589.9736062692</v>
-      </c>
-      <c r="G34">
-        <v>683633.4686987108</v>
-      </c>
-      <c r="H34">
-        <v>8898826910.567127</v>
-      </c>
-      <c r="I34">
-        <v>0.1895726924109388</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>586967.87112942</v>
-      </c>
-      <c r="E35">
-        <v>126731.8966568013</v>
-      </c>
-      <c r="F35">
-        <v>337058.0781516039</v>
-      </c>
-      <c r="G35">
-        <v>836877.6641072361</v>
-      </c>
-      <c r="H35">
-        <v>16060973630.23018</v>
-      </c>
-      <c r="I35">
-        <v>0.2159094268872825</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>9</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>307585.46291781</v>
-      </c>
-      <c r="E36">
-        <v>84402.14003993977</v>
-      </c>
-      <c r="F36">
-        <v>141148.110517198</v>
-      </c>
-      <c r="G36">
-        <v>474022.815318422</v>
-      </c>
-      <c r="H36">
-        <v>7123721243.321604</v>
-      </c>
-      <c r="I36">
-        <v>0.2744022400775581</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>9</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>262347.7242023</v>
-      </c>
-      <c r="E37">
-        <v>54641.66968750457</v>
-      </c>
-      <c r="F37">
-        <v>154596.7260731828</v>
-      </c>
-      <c r="G37">
-        <v>370098.7223314173</v>
-      </c>
-      <c r="H37">
-        <v>2985712066.238356</v>
-      </c>
-      <c r="I37">
-        <v>0.2082795642830491</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>239978.60120224</v>
-      </c>
-      <c r="E38">
-        <v>63070.35660067647</v>
-      </c>
-      <c r="F38">
-        <v>115606.5987552444</v>
-      </c>
-      <c r="G38">
-        <v>364350.6036492357</v>
-      </c>
-      <c r="H38">
-        <v>3977869881.736494</v>
-      </c>
-      <c r="I38">
-        <v>0.2628165856651712</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>201692.3780628</v>
-      </c>
-      <c r="E39">
-        <v>45018.68848817154</v>
-      </c>
-      <c r="F39">
-        <v>112917.4806849191</v>
-      </c>
-      <c r="G39">
-        <v>290467.2754406809</v>
-      </c>
-      <c r="H39">
-        <v>2026682313.195029</v>
-      </c>
-      <c r="I39">
-        <v>0.2232047086784523</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>10</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>236054.48319294</v>
-      </c>
-      <c r="E40">
-        <v>59945.11059258055</v>
-      </c>
-      <c r="F40">
-        <v>117845.3300640058</v>
-      </c>
-      <c r="G40">
-        <v>354263.6363218742</v>
-      </c>
-      <c r="H40">
-        <v>3593416283.956713</v>
-      </c>
-      <c r="I40">
-        <v>0.2539460796581618</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>10</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>439512.62401896</v>
-      </c>
-      <c r="E41">
-        <v>90354.93104619732</v>
-      </c>
-      <c r="F41">
-        <v>261336.6264369954</v>
-      </c>
-      <c r="G41">
-        <v>617688.6216009245</v>
-      </c>
-      <c r="H41">
-        <v>8164013564.363072</v>
-      </c>
-      <c r="I41">
-        <v>0.2055798311774988</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>283640.08792713</v>
-      </c>
-      <c r="E42">
-        <v>63377.32362181924</v>
-      </c>
-      <c r="F42">
-        <v>158662.7598539224</v>
-      </c>
-      <c r="G42">
-        <v>408617.4160003376</v>
-      </c>
-      <c r="H42">
-        <v>4016685149.464807</v>
-      </c>
-      <c r="I42">
-        <v>0.2234427583385234</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>224452.65117611</v>
-      </c>
-      <c r="E43">
-        <v>97436.61167403216</v>
-      </c>
-      <c r="F43">
-        <v>32311.88713578563</v>
-      </c>
-      <c r="G43">
-        <v>416593.4152164344</v>
-      </c>
-      <c r="H43">
-        <v>9493893294.51614</v>
-      </c>
-      <c r="I43">
-        <v>0.434107644367192</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>11</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>17274709.11248529</v>
-      </c>
-      <c r="E44">
-        <v>562627.1087071265</v>
-      </c>
-      <c r="F44">
-        <v>16165232.90349683</v>
-      </c>
-      <c r="G44">
-        <v>18384185.32147375</v>
-      </c>
-      <c r="H44">
-        <v>316549263452.1407</v>
-      </c>
-      <c r="I44">
-        <v>0.03256941144673099</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>11</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>18391292.81777781</v>
-      </c>
-      <c r="E45">
-        <v>617214.0058102028</v>
-      </c>
-      <c r="F45">
-        <v>17174173.61981654</v>
-      </c>
-      <c r="G45">
-        <v>19608412.01573908</v>
-      </c>
-      <c r="H45">
-        <v>380953128968.277</v>
-      </c>
-      <c r="I45">
-        <v>0.03356012064652559</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>11</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>18607963.62306068</v>
-      </c>
-      <c r="E46">
-        <v>617488.6341864192</v>
-      </c>
-      <c r="F46">
-        <v>17390302.8698757</v>
-      </c>
-      <c r="G46">
-        <v>19825624.37624567</v>
-      </c>
-      <c r="H46">
-        <v>381292213349.4094</v>
-      </c>
-      <c r="I46">
-        <v>0.03318410583204124</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>11</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>19058479.30961097</v>
-      </c>
-      <c r="E47">
-        <v>643636.4830498566</v>
-      </c>
-      <c r="F47">
-        <v>17789256.13474162</v>
-      </c>
-      <c r="G47">
-        <v>20327702.48448032</v>
-      </c>
-      <c r="H47">
-        <v>414267922312.7884</v>
-      </c>
-      <c r="I47">
-        <v>0.03377165998366292</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>12</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>11737997.14937184</v>
-      </c>
-      <c r="E48">
-        <v>410180.4014361774</v>
-      </c>
-      <c r="F48">
-        <v>10929139.22243596</v>
-      </c>
-      <c r="G48">
-        <v>12546855.07630772</v>
-      </c>
-      <c r="H48">
-        <v>168247961722.3437</v>
-      </c>
-      <c r="I48">
-        <v>0.03494466698333866</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>12</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>12266647.55615803</v>
-      </c>
-      <c r="E49">
-        <v>432508.2844700633</v>
-      </c>
-      <c r="F49">
-        <v>11413760.01415419</v>
-      </c>
-      <c r="G49">
-        <v>13119535.09816187</v>
-      </c>
-      <c r="H49">
-        <v>187063416135.2372</v>
-      </c>
-      <c r="I49">
-        <v>0.03525888246890554</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>12</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>11994971.24972625</v>
-      </c>
-      <c r="E50">
-        <v>442119.7789450548</v>
-      </c>
-      <c r="F50">
-        <v>11123130.25829241</v>
-      </c>
-      <c r="G50">
-        <v>12866812.24116009</v>
-      </c>
-      <c r="H50">
-        <v>195469898934.4241</v>
-      </c>
-      <c r="I50">
-        <v>0.03685876103747601</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>12</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>12225667.31127123</v>
-      </c>
-      <c r="E51">
-        <v>417046.3489401756</v>
-      </c>
-      <c r="F51">
-        <v>11403270.03422235</v>
-      </c>
-      <c r="G51">
-        <v>13048064.58832011</v>
-      </c>
-      <c r="H51">
-        <v>173927657164.3307</v>
-      </c>
-      <c r="I51">
-        <v>0.03411235872218504</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I51"/>
   <sheetViews>
